--- a/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
+++ b/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keeley\git\HexCrawlRepo\HexCrawlGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E473E4C8-4BBA-41AF-9702-00607FE18F03}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57992E16-D26C-4985-8425-8E08A978FA25}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="Import File Formats" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="409">
   <si>
     <t>HexMap - LinkedHashMap&lt;Tuple&lt;Integer&gt;,Hex&gt;</t>
   </si>
@@ -106,9 +107,6 @@
     <t>Generate:</t>
   </si>
   <si>
-    <t>Settings -&gt; Generate-&gt; Edit / Customize -&gt; Print + ID reference Sheet</t>
-  </si>
-  <si>
     <t>Settings:</t>
   </si>
   <si>
@@ -259,9 +257,6 @@
     <t>Monsters</t>
   </si>
   <si>
-    <t>Encounters</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sites: </t>
   </si>
   <si>
@@ -334,9 +329,6 @@
     <t xml:space="preserve">add generic "town location", "dungeon location" to table </t>
   </si>
   <si>
-    <t>Specific Dungeon Location:</t>
-  </si>
-  <si>
     <t>if the listed monster does not roam (0% in monster table), is only mentioned in dungeon description.</t>
   </si>
   <si>
@@ -422,19 +414,866 @@
   </si>
   <si>
     <t>Travel to closest location with RC&gt;0 &amp; outside set</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Locations</t>
+  </si>
+  <si>
+    <t>Specific Dungeon/Monster Influenced Location:</t>
+  </si>
+  <si>
+    <t>Graph&lt;Hex,Connection&gt;</t>
+  </si>
+  <si>
+    <t>Graph&lt;Hex,Road&gt;</t>
+  </si>
+  <si>
+    <t>Graph&lt;Hex,River&gt;</t>
+  </si>
+  <si>
+    <t>0 </t>
+  </si>
+  <si>
+    <t>1 </t>
+  </si>
+  <si>
+    <t>2 </t>
+  </si>
+  <si>
+    <t>3 </t>
+  </si>
+  <si>
+    <t>4 </t>
+  </si>
+  <si>
+    <t>6 </t>
+  </si>
+  <si>
+    <t>7 </t>
+  </si>
+  <si>
+    <t>8 </t>
+  </si>
+  <si>
+    <t>9 </t>
+  </si>
+  <si>
+    <t>10 </t>
+  </si>
+  <si>
+    <t>11 </t>
+  </si>
+  <si>
+    <t>12 </t>
+  </si>
+  <si>
+    <t>13 </t>
+  </si>
+  <si>
+    <t>14 </t>
+  </si>
+  <si>
+    <t>15 </t>
+  </si>
+  <si>
+    <t>16 </t>
+  </si>
+  <si>
+    <t>17 </t>
+  </si>
+  <si>
+    <t>18 </t>
+  </si>
+  <si>
+    <t>19 </t>
+  </si>
+  <si>
+    <t>20 </t>
+  </si>
+  <si>
+    <t>21 </t>
+  </si>
+  <si>
+    <t>22 </t>
+  </si>
+  <si>
+    <t>23 </t>
+  </si>
+  <si>
+    <t>24 </t>
+  </si>
+  <si>
+    <t>25 </t>
+  </si>
+  <si>
+    <t>26 </t>
+  </si>
+  <si>
+    <t>27 </t>
+  </si>
+  <si>
+    <t>28 </t>
+  </si>
+  <si>
+    <t>30 </t>
+  </si>
+  <si>
+    <t>31 </t>
+  </si>
+  <si>
+    <t>32 </t>
+  </si>
+  <si>
+    <t>33 </t>
+  </si>
+  <si>
+    <t>34 </t>
+  </si>
+  <si>
+    <t>35 </t>
+  </si>
+  <si>
+    <t>36 </t>
+  </si>
+  <si>
+    <t>37 </t>
+  </si>
+  <si>
+    <t>38 </t>
+  </si>
+  <si>
+    <t>39 </t>
+  </si>
+  <si>
+    <t>40 </t>
+  </si>
+  <si>
+    <t>41 </t>
+  </si>
+  <si>
+    <t>43 </t>
+  </si>
+  <si>
+    <t>44 </t>
+  </si>
+  <si>
+    <t>46 </t>
+  </si>
+  <si>
+    <t>48 </t>
+  </si>
+  <si>
+    <t>50 </t>
+  </si>
+  <si>
+    <t>52 </t>
+  </si>
+  <si>
+    <t>53 </t>
+  </si>
+  <si>
+    <t>54 </t>
+  </si>
+  <si>
+    <t>55 </t>
+  </si>
+  <si>
+    <t>56 </t>
+  </si>
+  <si>
+    <t>57 </t>
+  </si>
+  <si>
+    <t>58 </t>
+  </si>
+  <si>
+    <t>59 </t>
+  </si>
+  <si>
+    <t>60 </t>
+  </si>
+  <si>
+    <t>61 </t>
+  </si>
+  <si>
+    <t>62 </t>
+  </si>
+  <si>
+    <t>63 </t>
+  </si>
+  <si>
+    <t>64 </t>
+  </si>
+  <si>
+    <t>65 </t>
+  </si>
+  <si>
+    <t>67 </t>
+  </si>
+  <si>
+    <t>68 </t>
+  </si>
+  <si>
+    <t>69 </t>
+  </si>
+  <si>
+    <t>70 </t>
+  </si>
+  <si>
+    <t>71 </t>
+  </si>
+  <si>
+    <t>72 </t>
+  </si>
+  <si>
+    <t>73 </t>
+  </si>
+  <si>
+    <t>74 </t>
+  </si>
+  <si>
+    <t>75 </t>
+  </si>
+  <si>
+    <t>76 </t>
+  </si>
+  <si>
+    <t>77 </t>
+  </si>
+  <si>
+    <t>78 </t>
+  </si>
+  <si>
+    <t>80 </t>
+  </si>
+  <si>
+    <t>81 </t>
+  </si>
+  <si>
+    <t>82 </t>
+  </si>
+  <si>
+    <t>83 </t>
+  </si>
+  <si>
+    <t>84 </t>
+  </si>
+  <si>
+    <t>85 </t>
+  </si>
+  <si>
+    <t>86 </t>
+  </si>
+  <si>
+    <t>87 </t>
+  </si>
+  <si>
+    <t>88 </t>
+  </si>
+  <si>
+    <t>89 </t>
+  </si>
+  <si>
+    <t>90 </t>
+  </si>
+  <si>
+    <t>91 </t>
+  </si>
+  <si>
+    <t>92 </t>
+  </si>
+  <si>
+    <t>93 </t>
+  </si>
+  <si>
+    <t>94 </t>
+  </si>
+  <si>
+    <t>95 </t>
+  </si>
+  <si>
+    <t>96 </t>
+  </si>
+  <si>
+    <t>97 </t>
+  </si>
+  <si>
+    <t>98 </t>
+  </si>
+  <si>
+    <t>99 </t>
+  </si>
+  <si>
+    <t>100 </t>
+  </si>
+  <si>
+    <t>101 </t>
+  </si>
+  <si>
+    <t>102 </t>
+  </si>
+  <si>
+    <t>103 </t>
+  </si>
+  <si>
+    <t>104 </t>
+  </si>
+  <si>
+    <t>105 </t>
+  </si>
+  <si>
+    <t>106 </t>
+  </si>
+  <si>
+    <t>107 </t>
+  </si>
+  <si>
+    <t>108 </t>
+  </si>
+  <si>
+    <t>109 </t>
+  </si>
+  <si>
+    <t>112 </t>
+  </si>
+  <si>
+    <t>113 </t>
+  </si>
+  <si>
+    <t>114 </t>
+  </si>
+  <si>
+    <t>116 </t>
+  </si>
+  <si>
+    <t>117 </t>
+  </si>
+  <si>
+    <t>118 </t>
+  </si>
+  <si>
+    <t>119 </t>
+  </si>
+  <si>
+    <t>121 </t>
+  </si>
+  <si>
+    <t>122 </t>
+  </si>
+  <si>
+    <t>123 </t>
+  </si>
+  <si>
+    <t>124 </t>
+  </si>
+  <si>
+    <t>125 </t>
+  </si>
+  <si>
+    <t>126 </t>
+  </si>
+  <si>
+    <t>128 </t>
+  </si>
+  <si>
+    <t>202 </t>
+  </si>
+  <si>
+    <t>203 </t>
+  </si>
+  <si>
+    <t>204 </t>
+  </si>
+  <si>
+    <t>205 </t>
+  </si>
+  <si>
+    <t>206 </t>
+  </si>
+  <si>
+    <t>207 </t>
+  </si>
+  <si>
+    <t>208 </t>
+  </si>
+  <si>
+    <t>209 </t>
+  </si>
+  <si>
+    <t>301 </t>
+  </si>
+  <si>
+    <t>302 </t>
+  </si>
+  <si>
+    <t>303 </t>
+  </si>
+  <si>
+    <t>304 </t>
+  </si>
+  <si>
+    <t>305 </t>
+  </si>
+  <si>
+    <t>306 </t>
+  </si>
+  <si>
+    <t>307 </t>
+  </si>
+  <si>
+    <t>308 </t>
+  </si>
+  <si>
+    <t>309 </t>
+  </si>
+  <si>
+    <t>310 </t>
+  </si>
+  <si>
+    <t>311 </t>
+  </si>
+  <si>
+    <t>312 </t>
+  </si>
+  <si>
+    <t>313 </t>
+  </si>
+  <si>
+    <t>314 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia xiphophylla Tall Open Shrubland over Senna artemisioide subsp. oligophylla, Ptilotus nobilis, Solanum diversiflorum Low Sparse Shrubland over Triodia epactia, Triodia wiseana Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia Tall Open Shrubland over *Cenchrus ciliaris, Cynodon convergens, Eragrostis xerophila Low Sparse Tussock Grassland over Triodia epactia, Triodia wiseana Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia xiphophylla Tall Sparse Shrubland over Triodia wiseana Low Open Hummock Grassland over Paraneurachne muelleri Low Sparse Tussock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia xiphophylla Tall Open Shrubland over Triodia wiseana Low Open Hummock Grassland over *Cenchrus ciliaris, Sporobolus australasicus, Aristida contorta Low Sparse Tussock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia xiphophylla, Acacia bivenosa Tall Sparse Shrubland over Triodia wiseana Low Open Hummock Grassland over *Cenchrus ciliaris Low Sparse Tussock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia xiphophylla Tall Sparse Shrubland over Triodia epactia Grassland over Eragrostis xerophila Low Sparse Tussock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Open Woodland over Acacia bivenosa, Acacia synchronicia, Acacia pyrifolia Sparse Shrubland over Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Open Woodland over Senna glutinos subsp. glutinosa, Acacia ancistrocarpa Sparse Shrubland over Triodia wiseana Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia orthocarpa, Senna glutinos subsp. glutinosa, Acacia ancistrocarpa Sparse Shrubland over Acacia pyrifolia, Triumfetta clementii, Bonamia pilbarensis Low Sparse Shrubland over Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Terminalia supranitifolia Sparse Shrubland over Triodia wiseana Low Hummock Grassland over Trichodesma zeylanicum, Eriachne pulchell subsp. dominii Low Sparse Shrubland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Acacia orthocarpa, Senna glutinos subsp. glutinosa Sparse Shrubland over Corchorus laniflorus, Triumfetta clementii, Bonamia pilbarensis Low Sparse Shrubland over Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia sericophylla, Ehretia salign var. saligna Tall Sparse Shrubland over Terminalia supranitifolia, Trichodesma zeylanicum, Scaevola spinescens Sparse Shrubland over Cymbopogon ambiguus, Paspalidium tabulatum, Paspalidium tabulatum Low Sparse Tussock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminalia circumalata, Flueggea viros subsp. melanthesoides Low Woodland over Acacia pyrifolia, Acacia sericophylla, Eremophila longifolia Sparse Shrubland over Triumfetta clementii, Scaevola spinescens, Rhagodia eremaea Low Sparse Shrubland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminalia circumalata, Brachychiton acuminatus Low Open Woodland over Grevillea pyramidali subsp. leucadendron, Terminalia supranitifolia, Triumfetta maconochieana Tall Sparse Shrubland over Scaevola spinescens, Acacia sericophylla, Ehretia salign var. saligna Sparse Shrubland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Senna artemisioide subsp. oligophylla Sparse Shrubland over Triumfetta clementii, Boerhavia coccinea, Solanum cleistogamum Low Sparse Shrubland over Paspalidium tabulatum, Aristida burbidgeae Low Sparse Tussock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia sericophylla, Terminalia circumalata, Brachychiton acuminatus Low Open Woodland over Scaevola spinescens, Jasminum didymu subsp. lineare, Triumfetta maconochieana Sparse Shrubland over Acacia acradenia, Rhagodia eremaea Low Sparse Shrubland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sesbania formosa Tall Sparse Shrubland over Melaleuca linophylla, Cullen leucanthum, Hibiscus austrinu var. austrinus Sparse Shrubland over Typha domingensis, Cyperus vaginatus, Schoenoplectus subulatus Sparse Sedgeland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senna notabilis, Sida fibulifera, Neptunia dimorphantha Low Sparse Shrubland over Cynodon convergens Low Sparse Tussock Grassland over Phyllanthus maderaspatensis, Euphorbia biconvexa, Sporobolus australasicus Low Sparse Forbland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senna notabilis, Phyllanthus maderaspatensis, Sida fibulifera Low Sparse Shrubland over Cynodon convergens, Boerhavia paludosa, Dactyloctenium radulans Low Sparse Forbland over Panicum decompositum, Iseilema vaginiflorum Low Sparse Tussock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indigofera monophylla, Senna artemisioide subsp. oligophylla, Ptilotus nobilis Low Sparse Shrubland over Cynodon convergens Low Sparse Tussock Grassland over Oldenlandia crouchiana, Boerhavia paludosa, Iseilema vaginiflorum Low Sparse Forbland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senna artemisioide subsp. oligophylla, Phyllanthus maderaspatensis, Sida fibulifera Low Sparse Shrubland over Cynodon convergens, Senna notabilis Low Open Tussock Grassland over Boerhavia paludosa, Crotalaria dissitiflor subsp. benthamiana, Iseilema vaginiflorum Low Sparse Forbland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phyllanthus maderaspatensis, Senna notabilis, Alternanthera nana Low Sparse Shrubland over Cynodon convergens Low Sparse Tussock Grassland over Cleome viscosa, Panicum decompositum, Boerhavia paludosa Low Sparse Forbland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eriachne benthamii Low Tussock Grassland over Crotalaria dissitiflor subsp. benthamiana Low Sparse Shrubland over Marsilea hirsuta, Centipeda minim subsp. macrocephala, Elytrophorus spicatus Low Sparse Forbland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hakea lorea Sparse Shrubland over Eriachne benthamii Low Closed Tussock Grassland over Marsilea hirsuta Low Sparse Forbland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia Sparse Shrubland over Eriachne benthamii Low Tussock Grassland over Triodia epactia Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Neptunia dimorphantha, Sesbania cannabina Low Sparse Shrubland over Eriachne benthamii Low Tussock Grassland over Marsilea hirsuta, Panicum decompositum, Bothriochloa ewartiana Low Sparse Forbland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Indigofera monophylla, Senna notabilis Low Sparse Shrubland over Eriachne benthamii, Bothriochloa ewartiana Low Tussock Grassland over Boerhavia paludosa Low Sparse Forbland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Open Woodland over Acacia bivenosa, Acacia pyrifolia, Hakea lorea Tall Sparse Shrubland over Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Open Woodland over Acacia pyrifolia Tall Open Shrubland over Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Open Woodland over Acacia pyrifolia, Acacia acradenia, Acacia bivenosa Tall Open Shrubland over Triodia angusta, Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Senna glutinos subsp. glutinosa, Acacia bivenosa Sparse Shrubland over Corchorus laniflorus, Indigofera rugosa Low Sparse Shrubland over Triodia wiseana Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia tumida, Grevillea wickhamii Tall Sparse Shrubland over Acacia pyrifolia Sparse Shrubland over Triodia epactia, Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminalia circumalata Low Woodland over Acacia trachycarpa, Acacia pyrifolia, Flueggea viros subsp. melanthesoides Tall Sparse Shrubland over Tephrosia rose var. clementii, Indigofera monophylla, Senna artemisioide subsp. oligophylla Sparse Shrubland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia tumida, Grevillea wickhamii Tall Sparse Shrubland over Corchorus laniflorus, Bonamia pilbarensis, Hibiscus sturti var. campylochlamys Low Sparse Shrubland over Triodia epactia Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Open Woodland over Acacia tumida, Senna glutinos subsp. glutinosa, Grevillea wickhamii Sparse Shrubland over Triodia epactia, Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Open Woodland over Acacia pyrifolia, Acacia tumida, Acacia maitlandii Sparse Shrubland over Triodia epactia, Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Open Woodland over Acacia bivenosa, Acacia pyrifolia, Senna glutinos subsp. glutinosa Sparse Shrubland over Triodia wiseana, Triodia epactia Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Acacia bivenosa, Acacia ancistrocarpa Sparse Shrubland over Senna artemisioide subsp. oligophylla, Senna glutinos subsp. glutinosa, Ptilotus nobilis Low Sparse Shrubland over Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senna glutinos subsp. glutinosa, Acacia ancistrocarpa, Acacia acradenia Sparse Shrubland over Trichodesma zeylanicum, Triumfetta clementii, Boerhavia coccinea Low Sparse Shrubland over Triodia epactia Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Woodland over Acacia ancistrocarpa Tall Sparse Shrubland over Triumfetta clementii, Indigofera monophylla, Tephrosia supina Low Sparse Shrubland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia bivenosa, Acacia pyrifolia, Acacia tumida Tall Open Shrubland over Acacia trachycarpa, Corchorus laniflorus, Tephrosia rose var. clementii Sparse Shrubland over Triodia epactia Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia tumida, Acacia pyrifolia Tall Shrubland over Indigofera monophylla, Corchorus laniflorus, Senna artemisioide subsp. oligophylla Low Sparse Shrubland over *Cenchrus ciliaris, *Cenchrus setiger, Triodia wiseana Low Tussock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia tumida, Acacia pyrifolia, Grevillea wickhamii Tall Open Shrubland over Triumfetta clementii, Indigofera monophylla, Senna artemisioide subsp. oligophylla Low Sparse Shrubland over Triodia epactia Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia Tall Sparse Shrubland over Acacia acradenia Open Shrubland over Triodia wiseana Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eucalyptus victrix Low Open Woodland over Melaleuca linophylla, Melaleuca glomerata, Acacia bivenosa Sparse Shrubland over Triodia angusta Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eucalyptus victrix Open Woodland over Cullen leucanthum, Acacia trachycarpa, Sesbania cannabina Sparse Shrubland over Triodia angusta Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Senna glutinos subsp. glutinosa, Acacia ancistrocarpa Sparse Shrubland over Triumfetta clementii, Bonamia pilbarensis, Indigofera monophylla Low Sparse Shrubland over Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Hakea lorea, Acacia ancistrocarpa Sparse Shrubland over Corchorus laniflorus, Triumfetta clementii, Bonamia pilbarensis Low Sparse Shrubland over Triodia epactia Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Senna glutinos subsp. pruinosa, Acacia arida Sparse Shrubland over Corchorus laniflorus, Triumfetta clementii, Bonamia pilbarensis Low Sparse Shrubland over Triodia wiseana, Triodia epactia Open Sedgeland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia Sparse Shrubland over Indigofera monophylla, Acacia orthocarpa, Corchorus laniflorus Low Open Shrubland over Triodia epactia, Boerhavia coccinea Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia Sparse Shrubland over Corchorus laniflorus, Trichodesma zeylanicum, Grevillea pyramidali subsp. leucadendron Low Sparse Shrubland over Triodia epactia, Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia Sparse Shrubland over Acacia orthocarpa, Corchorus laniflorus, Bonamia pilbarensis Low Open Shrubland over Triodia epactia Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Grevillea wickhamii Sparse Shrubland over Acacia orthocarpa, Triumfetta clementii, Indigofera monophylla Low Sparse Shrubland over Triodia epactia, Triodia wiseana, Bonamia pilbarensis Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Corchorus laniflorus, Indigofera monophylla Low Sparse Shrubland over Triodia epactia, Triodia wiseana Low Open Hummock Grassland over Ptilotus nobilis Low Sparse Forbland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hakea lorea, Acacia ancistrocarpa Tall Sparse Shrubland over Acacia pyrifolia, Acacia bivenosa, Acacia inaequilatera Sparse Shrubland over Triodia epactia, Triodia wiseana Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corchorus laniflorus, Hakea lorea, Senna glutinos subsp. pruinosa Sparse Shrubland over Acacia pyrifolia, Corchorus laniflorus, Triumfetta clementii Low Sparse Shrubland over Triodia wiseana, Triodia epactia Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana, Grevillea pyramidali subsp. leucadendron Low Open Woodland over Acacia pyrifolia, Acacia orthocarpa, Senna glutinos subsp. pruinosa Low Sparse Shrubland over Triodia epactia, Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Sparse Mallee Shrubland over Acacia acradenia Tall Open Shrubland over Triodia epactia, Triodia wiseana, Triodia angusta Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Acacia acradenia Tall Open Shrubland over Indigofera monophylla, Acacia bivenosa, Senna glutinos subsp. glutinosa Sparse Shrubland over Triodia epactia, Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia tumida Tall Sparse Shrubland over Acacia acradenia, Acacia pyrifolia Open Shrubland over Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia inaequilatera Tall Sparse Shrubland over Acacia pyrifolia Sparse Shrubland over Triodia wiseana, Triodia epactia Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia inaequilatera Tall Sparse Shrubland over Acacia pyrifolia, Senna glutinos subsp. glutinosa, Acacia bivenosa Sparse Shrubland over Triodia wiseana, Triodia epactia Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Open Woodland over Acacia inaequilatera Tall Sparse Shrubland over Acacia pyrifolia, Bonamia pilbarensis, Senna glutinos subsp. glutinosa Low Sparse Shrubland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia inaequilatera Tall Sparse Shrubland over Acacia pyrifolia, Acacia bivenosa, Senna glutinos subsp. glutinosa Sparse Shrubland over Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grevillea wickhamii, Acacia pyrifolia, Acacia ancistrocarpa Sparse Shrubland over Corchorus laniflorus, Bonamia pilbarensis, Senna artemisioide subsp. oligophylla Low Sparse Shrubland over Triodia wiseana, Triodia epactia, Trichodesma zeylanicum Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia maitlandii, Acacia pyrifolia, Senna glutinos subsp. Glutinosa Sparse Shrubland over Triumfetta clementii, Hybanthus aurantiacus, Solanum diversiflorum Low Sparse Shrubland over Triodia wiseana, Triodia epactia Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grevillea wickhamii Tall Sparse Shrubland over Acacia pyrifolia, Senna artemisioide subsp. oligophylla, Acacia orthocarpa Sparse Shrubland over Triodia wiseana, Triodia epactia Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia Sparse Shrubland over Corchorus laniflorus, Bonamia pilbarensis, Boerhavia coccinea Low Sparse Shrubland over Triodia wiseana Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Acacia orthocarpa Sparse Shrubland over Corchorus laniflorus, Indigofera monophylla, Senna artemisioide subsp. oligophylla Low Sparse Shrubland over Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Hakea lorea Sparse Shrubland over Triodia wiseana Low Open Hummock Grassland over Eriachne pulchell subsp. dominii, Euphorbia vaccari var. vaccaria, Euphorbia vaccari var. vaccaria Low Sparse Forbland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grevillea wickhamii Tall Sparse Shrubland over Acacia orthocarpa, Acacia pyrifolia Sparse Shrubland over Triodia wiseana, Triodia epactia Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Acacia orthocarpa, Senna glutinos subsp. glutinosa Sparse Shrubland over Corchorus laniflorus, Triumfetta clementii, Bonamia pilbarensis Low Sparse Shrubland over Triodia wiseana, Triodia epactia Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Acacia orthocarpa, Senna glutinos subsp. pruinosa Sparse Shrubland over Corchorus laniflorus, Triumfetta clementii, Bonamia pilbarensis Low Sparse Shrubland over Triodia wiseana Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Hakea lorea, Acacia ancistrocarpa Sparse Shrubland over Triumfetta clementii, Bonamia pilbarensis, Indigofera monophylla Low Sparse Shrubland over Triodia wiseana Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hakea lorea, Grevillea pyramidali subsp. leucadendron Tall Sparse Shrubland over Acacia pyrifolia Sparse Shrubland over Triodia wiseana Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia Sparse Shrubland over Indigofera monophylla, Acacia orthocarpa, Tephrosia supina Low Open Shrubland over Triodia epactia Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia tumida Tall Open Shrubland over Acacia pyrifolia, Acacia orthocarpa, Grevillea wickhamii Sparse Shrubland over Triodia epactia, Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia tumida, Acacia pyrifolia Tall Shrubland over Acacia orthocarpa Sparse Shrubland over Triodia wiseana Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Grevillea pyramidali subsp. leucadendron, Atalaya hemiglauca Tall Open Shrubland over Indigofera monophylla, Acacia trachycarpa, Senna artemisioide subsp. oligophylla Sparse Shrubland over Triodia wiseana Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Open Woodland over Acacia trachycarpa, Acacia acradenia, Acacia pyrifolia Tall Open Shrubland over Corchorus laniflorus, Triumfetta clementii, Indigofera monophylla Low Sparse Shrubland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia ancistrocarpa, Acacia acradenia, Acacia pyrifolia Tall Sparse Shrubland over Corchorus laniflorus, Trichodesma zeylanicum, Indigofera monophylla Sparse Shrubland over Triodia wiseana Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia orthocarpa, Acacia pyrifolia Open Shrubland over Indigofera monophylla Low Sparse Shrubland over Triodia epactia, Triodia wiseana, Triodia angusta Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia Sparse Shrubland over Corchorus laniflorus, Trichodesma zeylanicum, Triumfetta clementii Low Sparse Shrubland over Triodia wiseana, Triodia wiseana Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Acacia ancistrocarpa Sparse Shrubland over Corchorus laniflorus, Trichodesma zeylanicum, Triumfetta clementii Low Sparse Shrubland over Triodia wiseana Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia synchronicia, Acacia bivenosa, Hakea lorea Tall Sparse Shrubland over Acacia pyrifolia, Trichodesma zeylanicum Sparse Shrubland over Triodia wiseana Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia bivenosa, Acacia pyrifolia Tall Sparse Shrubland over Hakea lorea, Acacia synchronicia Sparse Shrubland over Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Hakea lorea Tall Sparse Shrubland over Acacia bivenosa, Acacia ancistrocarpa, Acacia synchronicia Sparse Shrubland over Triodia wiseana Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Hakea lorea Tall Sparse Shrubland over Senna artemisioide subsp. oligophylla, Acacia bivenosa, Senna glutinos subsp. x luerssenii Sparse Shrubland over Triodia wiseana Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia bivenosa, Acacia inaequilatera Sparse Shrubland over Bonamia pilbarensis, Senna artemisioide subsp. oligophylla, Boerhavia coccinea Low Sparse Shrubland over Triodia wiseana, Salsola australis Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Acacia bivenosa, Corymbia hamersleyana Tall Sparse Shrubland over Senna artemisioide subsp. oligophylla, Acacia ancistrocarpa, Acacia synchronicia Sparse Shrubland over Triodia epactia, Triodia wiseana Low Closed Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia tumida, Acacia pyrifolia Tall Open Shrubland over Senna artemisioide subsp. oligophylla Sparse Shrubland over Triodia epactia Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia orthocarpa, Acacia pyrifolia Tall Sparse Shrubland over Ptilotus calostachyus, Indigofera monophylla Sparse Shrubland over Triodia epactia Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia orthocarpa Open Shrubland over Acacia pyrifolia, Trichodesma zeylanicum Low Sparse Shrubland over Corchorus laniflorus, Triumfetta clementii, Triumfetta clementii Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Acacia acradenia Tall Sparse Shrubland over Acacia trachycarpa Open Shrubland over Triodia epactia Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia Tall Sparse Shrubland over Corchorus laniflorus, Bonamia pilbarensis, Boerhavia coccinea Low Sparse Shrubland over Triodia epactia, Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Open Woodland over Acacia pyrifolia Tall Sparse Shrubland over Triodia epactia, Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia Sparse Shrubland over Corchorus laniflorus, Triumfetta clementii, Bonamia pilbarensis Low Sparse Shrubland over Triodia epactia, Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonamia pilbarensis, Senna artemisioide subsp. oligophylla, Senna notabilis Low Sparse Shrubland over Triodia epactia Low Hummock Grassland over Eriachne benthamii, Cynodon convergens Low Sparse Tussock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia Tall Sparse Shrubland over Acacia ancistrocarpa, Hakea lorea Sparse Shrubland over Triodia epactia, Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Open Woodland over Acacia xiphophylla, Acacia bivenosa, Grevillea pyramidali subsp. leucadendron Tall Sparse Shrubland over Triodia epactia, Triodia wiseana Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia xiphophylla Sparse Shrubland over Trichodesma zeylanicum, Triumfetta clementii, Senna artemisioide subsp. oligophylla Low Sparse Shrubland over Triodia epactia, Triodia wiseana Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Hakea lorea Sparse Shrubland over Acacia ancistrocarpa, Corchorus laniflorus, Acacia bivenosa Low Sparse Shrubland over Triodia epactia, Triodia wiseana, Indigofera monophylla Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Hakea lorea Sparse Shrubland over Acacia maitlandii, Corchorus laniflorus, Acacia orthocarpa Low Sparse Shrubland over Triodia wiseana, Triodia epactia Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Senna glutinos subsp. glutinosa, Acacia ancistrocarpa Sparse Shrubland over Acacia maitlandii, Corchorus laniflorus, Bonamia pilbarensis Low Sparse Shrubland over Triodia epactia, Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Open Woodland over Acacia maitlandii, Acacia pyrifolia, Corchorus laniflorus Low Sparse Shrubland over Triodia epactia Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia maitlandii Tall Sparse Shrubland over Acacia pyrifolia, Acacia orthocarpa Sparse Shrubland over Triodia epactia Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Open Woodland over Acacia ancistrocarpa, Acacia pyrifolia, Acacia bivenosa Tall Open Shrubland over Triodia epactia Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia ancistrocarpa, Acacia pyrifolia, Ptilotus calostachyus Sparse Shrubland over Corchorus laniflorus, Indigofera monophylla, Acacia orthocarpa Low Sparse Shrubland over Triodia epactia, Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia Sparse Shrubland over Senna glutinos subsp. glutinosa, Heliotropium tenuifolium Low Sparse Shrubland over Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Hakea lorea Tall Sparse Shrubland over Bonamia pilbarensis, Senna artemisioide subsp. oligophylla, Tephrosia clementii Low Sparse Shrubland over Triodia wiseana Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Senna artemisioide subsp. oligophylla, Acacia bivenosa Sparse Shrubland over Corchorus laniflorus, Triumfetta clementii, Bonamia pilbarensis Low Sparse Shrubland over Triodia wiseana, Triodia epactia Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia acradenia, Jasminum didymu subsp. lineare, Gossypium australe Open Shrubland over Polymeria ambigua, Corchorus laniflorus, Indigofera monophylla Low Open Shrubland over Triodia epactia Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solanum diversiflorum Low Open Woodland over Acacia bivenosa, Scaevola spinescens Tall Sparse Shrubland over Triodia wiseana, Triodia epactia Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hakea lorea Low Sparse Mallee Shrubland over Acacia orthocarpa Tall Sparse Shrubland over Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia acradenia, Acacia pyrifolia, Hakea lorea Tall Sparse Shrubland over Corchorus laniflorus, Trichodesma zeylanicum, Triumfetta clementii Low Sparse Shrubland over Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eucalyptus victrix Woodland over Melaleuca linophylla, Acacia coriace subsp. pendens Tall Sparse Shrubland over Triodia angusta, Triodia wiseana Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Open Woodland over Acacia acradenia, Acacia bivenosa Tall Open Shrubland over Triodia epactia, Triodia wiseana, Triodia angusta Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia xiphophylla Tall Open Shrubland over Senna artemisioide subsp. oligophylla, Ptilotus nobilis, Enchylaena tomentosa Low Sparse Shrubland over Triodia epactia, Triodia wiseana Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia maitlandii, Acacia pyrifolia Tall Sparse Shrubland over Indigofera monophylla, Acacia acradenia, Grevillea pyramidali subsp. leucadendron Shrubland over Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia ancistrocarpa, Acacia inaequilatera Tall Open Shrubland over Indigofera monophylla Low Sparse Shrubland over Triodia wiseana Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Open Woodland over Acacia acradenia, Acacia pyrifolia, Senna artemisioide subsp. oligophylla Open Shrubland over Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Open Woodland over Acacia tumida, *Vachellia farnesiana, Acacia pyrifolia Tall Open Shrubland over Triodia wiseana, Triodia epactia Low Sparse Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melaleuca linophylla Tall Sparse Shrubland over Acacia orthocarpa Sparse Shrubland over Triodia angusta, Triodia wiseana Low Sparse Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Open Woodland over Acacia pyrifolia, Senna glutinos subsp. glutinosa, Acacia bivenosa Sparse Shrubland over Triodia wiseana, Triodia epactia Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Open Woodland over Acacia pyrifolia Tall Sparse Shrubland over Chrysopogon fallax, *Cenchrus setiger Low Sparse Tussock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Open Woodland over Acacia ancistrocarpa, Acacia orthocarpa, Acacia bivenosa Sparse Shrubland over Triodia wiseana Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Acacia orthocarpa, Acacia ancistrocarpa Sparse Shrubland over Corchorus laniflorus, Triumfetta clementii, Bonamia pilbarensis Low Sparse Shrubland over Triodia wiseana, Triodia epactia Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eucalyptus victrix Open Woodland over Acacia pyrifolia, Acacia orthocarpa, Acacia bivenosa Sparse Shrubland over *Cenchrus ciliaris, Themeda triandra Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia, Acacia orthocarpa, Acacia ancistrocarpa Sparse Shrubland over Corchorus laniflorus, Corchorus laniflorus, Triumfetta clementii Low Sparse Shrubland over Triodia wiseana, Triodia epactia Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Woodland over Acacia bivenosa Tall Sparse Shrubland over Triodia wiseana Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia xiphophylla Tall Sparse Shrubland over Salsola australis, Senna glutinos subsp. x luerssenii, Enchylaena tomentosa Low Sparse Shrubland over Triodia wiseana, Triodia epactia Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Open Woodland over Acacia pyrifolia Tall Sparse Shrubland over Triodia wiseana Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia Tall Sparse Shrubland over Acacia orthocarpa Sparse Shrubland over Triodia wiseana Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Open Woodland over Acacia pyrifolia Tall Sparse Shrubland over Triodia wiseana, Triodia epactia Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corymbia hamersleyana Low Open Woodland over Hakea lorea, Ehretia salign var. saligna Tall Sparse Shrubland over Triodia wiseana, Triodia epactia Low Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acacia pyrifolia Tall Sparse Shrubland over Acacia ancistrocarpa, Acacia bivenosa, Senna glutinos subsp. glutinosa Sparse Shrubland over Triodia epactia Low Open Hummock Grassland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terminalia supranitifolia, Scaevola spinescens, Acacia sericophylla Tall Sparse Shrubland over Acacia pyrifolia, Rhagodia eremaea, Flueggea viros subsp. melanthesoides Sparse Shrubland over *Cenchrus ciliaris, Paspalidium tabulatum Low Sparse Tussock Grassland </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -463,9 +1302,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,7 +1624,7 @@
   <dimension ref="B2:T63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,11 +1639,24 @@
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -849,16 +1703,16 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="Q13" t="s">
-        <v>26</v>
+      <c r="Q13" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="Q15" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" t="s">
         <v>27</v>
-      </c>
-      <c r="R15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
@@ -869,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
@@ -885,7 +1739,7 @@
         <v>25</v>
       </c>
       <c r="R18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
@@ -893,39 +1747,39 @@
         <v>12</v>
       </c>
       <c r="R19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I23" t="s">
         <v>20</v>
       </c>
       <c r="R23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
@@ -938,15 +1792,15 @@
         <v>22</v>
       </c>
       <c r="Q25" t="s">
+        <v>39</v>
+      </c>
+      <c r="R25" t="s">
         <v>40</v>
-      </c>
-      <c r="R25" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="K26" t="s">
         <v>18</v>
@@ -962,10 +1816,10 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
@@ -976,125 +1830,125 @@
         <v>17</v>
       </c>
       <c r="Q29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="Q34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="R35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.25">
@@ -1104,74 +1958,74 @@
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="L57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.25">
       <c r="L58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="L60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.25">
       <c r="L61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.25">
       <c r="L62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="3:12" x14ac:dyDescent="0.25">
       <c r="L63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1183,215 +2037,1326 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3FFC2E-0279-4607-A621-7B99083CA9F1}">
   <dimension ref="B1:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="S5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.25">
       <c r="S10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="S11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="S12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="T13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD16" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="AE16" s="1"/>
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="V18" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="W19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="S23" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="T26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="T28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="T30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="T31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T33" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB93580-63A8-48C1-B851-F045754D5CBD}">
+  <dimension ref="A1:B137"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>157</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>186</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>187</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>190</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>191</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>192</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>193</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>194</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>195</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>197</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>199</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>200</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>201</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>206</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>207</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>209</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>210</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>211</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>212</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>213</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>214</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>215</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>216</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>217</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>218</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>219</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>220</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>221</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>222</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>223</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>224</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>225</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>226</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>227</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>228</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>229</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>230</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>231</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>232</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>233</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>234</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>235</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>236</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>237</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>238</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>239</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>240</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>241</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>242</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>243</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>244</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>245</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>246</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>247</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>248</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>249</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>250</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>251</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>252</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>253</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>254</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>255</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>257</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>258</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>259</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>260</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>261</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>262</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>263</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>264</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>265</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>266</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>267</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>268</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>269</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>271</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
+++ b/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keeley\git\HexCrawlRepo\HexCrawlGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932DFEB1-6371-405C-B98C-B5DF379D274D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32022920-45F2-4E28-A949-199F598DE5C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="150">
   <si>
     <t>HexMap - LinkedHashMap&lt;Tuple&lt;Integer&gt;,Hex&gt;</t>
   </si>
@@ -101,9 +101,6 @@
     <t>POTENTIAL FOR: Kingdoms, rulings using biome code modified.</t>
   </si>
   <si>
-    <t>Village</t>
-  </si>
-  <si>
     <t>Generate:</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>Each hex contains:</t>
   </si>
   <si>
-    <t>Territory</t>
-  </si>
-  <si>
     <t>DCs for spotting landmarks, tracks, lairs</t>
   </si>
   <si>
@@ -474,6 +468,15 @@
   </si>
   <si>
     <t>File Reading to input all Settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nomad </t>
+  </si>
+  <si>
+    <t>affects all surrounding tiles</t>
+  </si>
+  <si>
+    <t>Town</t>
   </si>
 </sst>
 </file>
@@ -845,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD47954-9054-45D0-8114-DD78AB18C454}">
   <dimension ref="B2:T63"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K26" sqref="K25:K26"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,17 +864,17 @@
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -926,15 +929,15 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="Q13" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="Q15" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" t="s">
         <v>26</v>
-      </c>
-      <c r="R15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
@@ -945,7 +948,7 @@
         <v>2</v>
       </c>
       <c r="R16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
@@ -958,10 +961,10 @@
         <v>13</v>
       </c>
       <c r="Q18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
@@ -969,39 +972,39 @@
         <v>12</v>
       </c>
       <c r="R19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I23" t="s">
         <v>20</v>
       </c>
       <c r="R23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
@@ -1014,15 +1017,15 @@
         <v>22</v>
       </c>
       <c r="Q25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R25" t="s">
         <v>39</v>
-      </c>
-      <c r="R25" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K26" t="s">
         <v>18</v>
@@ -1033,144 +1036,149 @@
         <v>16</v>
       </c>
       <c r="K27" t="s">
-        <v>24</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K28" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>19</v>
       </c>
-      <c r="K29" t="s">
-        <v>17</v>
-      </c>
       <c r="Q29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>147</v>
+      </c>
+      <c r="K32" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="Q34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="R35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="S36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="S38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I40" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="S42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="S43" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="I47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="S47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="S48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.25">
@@ -1180,74 +1188,74 @@
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K53" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="3:12" x14ac:dyDescent="0.25">
       <c r="L57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.25">
       <c r="L58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.25">
       <c r="L60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.25">
       <c r="L61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.25">
       <c r="L62" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="3:12" x14ac:dyDescent="0.25">
       <c r="L63" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1259,215 +1267,215 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3FFC2E-0279-4607-A621-7B99083CA9F1}">
   <dimension ref="B1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:I46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="S5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="S7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.25">
       <c r="S10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="S12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="T13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="T16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AE16" s="1"/>
     </row>
     <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="U17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="W19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="T26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="T29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="T30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="T31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.25">
@@ -1481,58 +1489,58 @@
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F37" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1552,12 +1560,12 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
+++ b/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keeley\git\HexCrawlRepo\HexCrawlGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32022920-45F2-4E28-A949-199F598DE5C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DCFC36-3C07-4988-AA58-CC22C0886B35}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="151">
   <si>
     <t>HexMap - LinkedHashMap&lt;Tuple&lt;Integer&gt;,Hex&gt;</t>
   </si>
@@ -477,6 +477,9 @@
   </si>
   <si>
     <t>Town</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -848,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD47954-9054-45D0-8114-DD78AB18C454}">
   <dimension ref="B2:T63"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3FFC2E-0279-4607-A621-7B99083CA9F1}">
   <dimension ref="B1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,22 +1553,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEF3A76-9AB3-444D-84D1-A480A7497687}">
-  <dimension ref="B3:B4"/>
+  <dimension ref="B3:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>145</v>
+      </c>
+      <c r="H4" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
+++ b/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keeley\git\HexCrawlRepo\HexCrawlGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DCFC36-3C07-4988-AA58-CC22C0886B35}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EDD80A-C23D-41FA-A2EC-4C823AF7F6D1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="3" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="Import File Formats" sheetId="2" r:id="rId2"/>
     <sheet name="Todo" sheetId="6" r:id="rId3"/>
+    <sheet name="BWeights" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="172">
   <si>
     <t>HexMap - LinkedHashMap&lt;Tuple&lt;Integer&gt;,Hex&gt;</t>
   </si>
@@ -480,6 +481,69 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>add random monster lairs to hexes(?)</t>
+  </si>
+  <si>
+    <t>better way to input biome weights, make it non-compulsory to include biomes, make empty indexes = 0</t>
+  </si>
+  <si>
+    <t>TYPE=bweight</t>
+  </si>
+  <si>
+    <t>name=plain</t>
+  </si>
+  <si>
+    <t>scrub</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>rough</t>
+  </si>
+  <si>
+    <t>desert</t>
+  </si>
+  <si>
+    <t>hills</t>
+  </si>
+  <si>
+    <t>mountains</t>
+  </si>
+  <si>
+    <t>marsh</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>plain=12</t>
+  </si>
+  <si>
+    <t>scrub=3</t>
+  </si>
+  <si>
+    <t>forest=1</t>
+  </si>
+  <si>
+    <t>rough=2</t>
+  </si>
+  <si>
+    <t>desert=3</t>
+  </si>
+  <si>
+    <t>hills=1</t>
+  </si>
+  <si>
+    <t>mountains=1</t>
+  </si>
+  <si>
+    <t>marsh=2</t>
+  </si>
+  <si>
+    <t>hell=0</t>
   </si>
 </sst>
 </file>
@@ -1553,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEF3A76-9AB3-444D-84D1-A480A7497687}">
-  <dimension ref="B3:H4"/>
+  <dimension ref="B3:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,6 +1641,329 @@
         <v>150</v>
       </c>
     </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C3FAB9-666F-4230-B6BA-656A15C724B2}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
+++ b/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keeley\git\HexCrawlRepo\HexCrawlGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EDD80A-C23D-41FA-A2EC-4C823AF7F6D1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7899A180-6B00-4289-A542-D456DBA76053}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="3" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="174">
   <si>
     <t>HexMap - LinkedHashMap&lt;Tuple&lt;Integer&gt;,Hex&gt;</t>
   </si>
@@ -544,6 +544,12 @@
   </si>
   <si>
     <t>hell=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add River generation </t>
+  </si>
+  <si>
+    <t>draw hex connections n a filled hexmap</t>
   </si>
 </sst>
 </file>
@@ -1617,10 +1623,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEF3A76-9AB3-444D-84D1-A480A7497687}">
-  <dimension ref="B3:H8"/>
+  <dimension ref="B3:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,6 +1655,16 @@
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1660,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C3FAB9-666F-4230-B6BA-656A15C724B2}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
+++ b/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keeley\git\HexCrawlRepo\HexCrawlGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7899A180-6B00-4289-A542-D456DBA76053}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DA5424-883D-4DED-B60A-3906F8B5E78A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="4" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="Import File Formats" sheetId="2" r:id="rId2"/>
     <sheet name="Todo" sheetId="6" r:id="rId3"/>
     <sheet name="BWeights" sheetId="7" r:id="rId4"/>
+    <sheet name="Classes" sheetId="8" r:id="rId5"/>
+    <sheet name="Generation Order" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="229">
   <si>
     <t>HexMap - LinkedHashMap&lt;Tuple&lt;Integer&gt;,Hex&gt;</t>
   </si>
@@ -489,12 +491,6 @@
     <t>better way to input biome weights, make it non-compulsory to include biomes, make empty indexes = 0</t>
   </si>
   <si>
-    <t>TYPE=bweight</t>
-  </si>
-  <si>
-    <t>name=plain</t>
-  </si>
-  <si>
     <t>scrub</t>
   </si>
   <si>
@@ -519,37 +515,208 @@
     <t>hell</t>
   </si>
   <si>
-    <t>plain=12</t>
-  </si>
-  <si>
-    <t>scrub=3</t>
-  </si>
-  <si>
-    <t>forest=1</t>
-  </si>
-  <si>
-    <t>rough=2</t>
-  </si>
-  <si>
-    <t>desert=3</t>
-  </si>
-  <si>
-    <t>hills=1</t>
-  </si>
-  <si>
-    <t>mountains=1</t>
-  </si>
-  <si>
-    <t>marsh=2</t>
-  </si>
-  <si>
-    <t>hell=0</t>
-  </si>
-  <si>
     <t xml:space="preserve">add River generation </t>
   </si>
   <si>
     <t>draw hex connections n a filled hexmap</t>
+  </si>
+  <si>
+    <t>add decorator pattern to biomes, allow for changes in the biome's stats</t>
+  </si>
+  <si>
+    <t>mountain pass</t>
+  </si>
+  <si>
+    <t>gorge</t>
+  </si>
+  <si>
+    <t>'forested'</t>
+  </si>
+  <si>
+    <t>reefs</t>
+  </si>
+  <si>
+    <t>these are randomly applied to hexes</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>bweight</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>plain</t>
+  </si>
+  <si>
+    <t>Hex has: "WorldObjects" - these affect how the hex is treated by programs.</t>
+  </si>
+  <si>
+    <t>Each has a unique field within the hex.</t>
+  </si>
+  <si>
+    <t>WorldDescriptions - affect the printout of the hex, small additions</t>
+  </si>
+  <si>
+    <t>WorldObject</t>
+  </si>
+  <si>
+    <t>Visibility</t>
+  </si>
+  <si>
+    <t>this affects how far away this object can be seen. If &lt; hex size, only a small chance to see even when within hex.</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>miles wide</t>
+  </si>
+  <si>
+    <t>this affects the encounter table generated by the owning hex, and the neighbouring hexes.</t>
+  </si>
+  <si>
+    <t>visibility is affected by the biome height</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>miles high</t>
+  </si>
+  <si>
+    <t>TravelCost</t>
+  </si>
+  <si>
+    <t>WorldObjects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WorldDescriptors </t>
+  </si>
+  <si>
+    <t>Anything that has affected this hex in some way adds a world descriptor to the hex for outputs.</t>
+  </si>
+  <si>
+    <t>Anything that causes the hex to behave in a unique way to OUTSIDE hexes is a worldobject</t>
+  </si>
+  <si>
+    <t>Affects Hex's base stats, DECORATOR with biome modifier</t>
+  </si>
+  <si>
+    <t>BiomeMod extends Biome</t>
+  </si>
+  <si>
+    <t>Method by which a world object can modify a hex (by decorating it)</t>
+  </si>
+  <si>
+    <t>changes the biomes stats in some way, adding "forested" to name / descriptor etc.</t>
+  </si>
+  <si>
+    <t>Includes:</t>
+  </si>
+  <si>
+    <t>Biomes</t>
+  </si>
+  <si>
+    <t>Initial Biomes are created.</t>
+  </si>
+  <si>
+    <t>Rivers are created, starting from mountains and ending in water hexes</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>WorldDescriptor</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Importance</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>String[]</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Initial Biome modifiers are created to smooth transitions.</t>
+  </si>
+  <si>
+    <t>Smoothers and Transitioners use this to make hybrid biomes</t>
+  </si>
+  <si>
+    <t>Usage:</t>
+  </si>
+  <si>
+    <t>monster,nomadic</t>
+  </si>
+  <si>
+    <t>Ghouls (MM197)</t>
+  </si>
+  <si>
+    <t>Common Monsters present are: Ghouls (MM197), Owlbears and Elephants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hex is infested(&gt;10 importance) with Rats </t>
+  </si>
+  <si>
+    <t>Nomadic monsters are: Ghouls</t>
+  </si>
+  <si>
+    <t>affects importance of world descriptor</t>
+  </si>
+  <si>
+    <t>-- can't access important stuff like ghoul radius, origin hex etc.</t>
+  </si>
+  <si>
+    <t>Hex Center: 3,1 Radius: 2</t>
+  </si>
+  <si>
+    <t>Monsters - both nomadic and lair-based</t>
+  </si>
+  <si>
+    <t>dungeons - just 1* lair monsters here</t>
+  </si>
+  <si>
+    <t>1..* lair monsters</t>
+  </si>
+  <si>
+    <t>any specified are assumed to regularly leave the dungeon, thus can leave tracks / be fought</t>
+  </si>
+  <si>
+    <t>don't mention all dungeon inhabitants</t>
+  </si>
+  <si>
+    <t>Regions - clump large forests, mountains, water bodies together and have a shared worlddescriptor for those components</t>
+  </si>
+  <si>
+    <t>Roads</t>
+  </si>
+  <si>
+    <t>need to be able to show existing towns connected to this road network</t>
+  </si>
+  <si>
+    <t>each hex MUST be able to get "town directions" via road network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rivers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huge travel cost added </t>
+  </si>
+  <si>
+    <t>Huge pathfinding cost added</t>
   </si>
 </sst>
 </file>
@@ -921,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD47954-9054-45D0-8114-DD78AB18C454}">
   <dimension ref="B2:T63"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,6 +1187,9 @@
       <c r="C16" t="s">
         <v>2</v>
       </c>
+      <c r="I16" t="s">
+        <v>173</v>
+      </c>
       <c r="R16" t="s">
         <v>34</v>
       </c>
@@ -1028,10 +1198,16 @@
       <c r="D17" t="s">
         <v>14</v>
       </c>
+      <c r="J17" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>13</v>
+      </c>
+      <c r="J18" t="s">
+        <v>175</v>
       </c>
       <c r="Q18" t="s">
         <v>24</v>
@@ -1623,10 +1799,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEF3A76-9AB3-444D-84D1-A480A7497687}">
-  <dimension ref="B3:H10"/>
+  <dimension ref="B3:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,12 +1835,42 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>173</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1674,10 +1880,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C3FAB9-666F-4230-B6BA-656A15C724B2}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,46 +1891,52 @@
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>154</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
         <v>155</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>156</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>157</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>158</v>
       </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>159</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>160</v>
       </c>
-      <c r="H2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1745,22 +1957,25 @@
         <v>1</v>
       </c>
       <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
@@ -1774,28 +1989,31 @@
         <v>1</v>
       </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>10</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
       <c r="G5">
         <v>1</v>
       </c>
@@ -1803,73 +2021,82 @@
         <v>1</v>
       </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
       <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
       <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1878,24 +2105,27 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>6</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
       <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1904,27 +2134,30 @@
         <v>1</v>
       </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>8</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1933,27 +2166,30 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
       <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>7</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1965,10 +2201,10 @@
         <v>0</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>10</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1977,7 +2213,281 @@
         <v>0</v>
       </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7658268-425E-4714-A5A5-378B4A74F2DC}">
+  <dimension ref="B2:W34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>190</v>
+      </c>
+      <c r="W3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L4" t="s">
+        <v>189</v>
+      </c>
+      <c r="W4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>185</v>
+      </c>
+      <c r="J5" t="s">
+        <v>187</v>
+      </c>
+      <c r="L5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>194</v>
+      </c>
+      <c r="W6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="N8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" t="s">
+        <v>178</v>
+      </c>
+      <c r="R14" t="s">
+        <v>223</v>
+      </c>
+      <c r="S14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>181</v>
+      </c>
+      <c r="S15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>214</v>
+      </c>
+      <c r="R17" t="s">
+        <v>226</v>
+      </c>
+      <c r="S17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="S18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="S23" t="s">
+        <v>219</v>
+      </c>
+      <c r="U23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>208</v>
+      </c>
+      <c r="H26" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" t="s">
+        <v>209</v>
+      </c>
+      <c r="R27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>205</v>
+      </c>
+      <c r="D28" t="s">
+        <v>200</v>
+      </c>
+      <c r="H28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" t="s">
+        <v>201</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="K31" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533EBB87-5A6A-46A2-9F13-A4D39854AC7D}">
+  <dimension ref="C4:M6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>197</v>
+      </c>
+      <c r="M6" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
+++ b/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keeley\git\HexCrawlRepo\HexCrawlGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DA5424-883D-4DED-B60A-3906F8B5E78A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13495825-F64E-4EE0-A6F1-58BBCC60DC57}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="4" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="230">
   <si>
     <t>HexMap - LinkedHashMap&lt;Tuple&lt;Integer&gt;,Hex&gt;</t>
   </si>
@@ -713,10 +713,13 @@
     <t xml:space="preserve">Rivers </t>
   </si>
   <si>
-    <t xml:space="preserve">Huge travel cost added </t>
-  </si>
-  <si>
     <t>Huge pathfinding cost added</t>
+  </si>
+  <si>
+    <t>input current hex, get towns and the direction along what road</t>
+  </si>
+  <si>
+    <t>Huge travel cost added (bridge ignores this)</t>
   </si>
 </sst>
 </file>
@@ -2229,7 +2232,7 @@
   <dimension ref="B2:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2339,26 +2342,29 @@
       <c r="E16" t="s">
         <v>182</v>
       </c>
+      <c r="S16" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>214</v>
       </c>
-      <c r="R17" t="s">
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R18" t="s">
         <v>226</v>
       </c>
-      <c r="S17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>199</v>
+      </c>
+      <c r="S19" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">

--- a/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
+++ b/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keeley\git\HexCrawlRepo\HexCrawlGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13495825-F64E-4EE0-A6F1-58BBCC60DC57}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DA5424-883D-4DED-B60A-3906F8B5E78A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="4" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="229">
   <si>
     <t>HexMap - LinkedHashMap&lt;Tuple&lt;Integer&gt;,Hex&gt;</t>
   </si>
@@ -713,13 +713,10 @@
     <t xml:space="preserve">Rivers </t>
   </si>
   <si>
+    <t xml:space="preserve">Huge travel cost added </t>
+  </si>
+  <si>
     <t>Huge pathfinding cost added</t>
-  </si>
-  <si>
-    <t>input current hex, get towns and the direction along what road</t>
-  </si>
-  <si>
-    <t>Huge travel cost added (bridge ignores this)</t>
   </si>
 </sst>
 </file>
@@ -2232,7 +2229,7 @@
   <dimension ref="B2:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2342,29 +2339,26 @@
       <c r="E16" t="s">
         <v>182</v>
       </c>
-      <c r="S16" t="s">
-        <v>228</v>
-      </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>214</v>
       </c>
+      <c r="R17" t="s">
+        <v>226</v>
+      </c>
+      <c r="S17" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="R18" t="s">
-        <v>226</v>
-      </c>
       <c r="S18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>199</v>
-      </c>
-      <c r="S19" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">

--- a/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
+++ b/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keeley\git\HexCrawlRepo\HexCrawlGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13495825-F64E-4EE0-A6F1-58BBCC60DC57}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4C7A8A-E3DC-4747-9B9A-7E1B3391AE23}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="4" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="238">
   <si>
     <t>HexMap - LinkedHashMap&lt;Tuple&lt;Integer&gt;,Hex&gt;</t>
   </si>
@@ -720,6 +720,30 @@
   </si>
   <si>
     <t>Huge travel cost added (bridge ignores this)</t>
+  </si>
+  <si>
+    <t>Roads:</t>
+  </si>
+  <si>
+    <t>towns and similar generate "RoadNodes" at their Point</t>
+  </si>
+  <si>
+    <t>Connection controller then joins up all roadnodes within travel distance of one another</t>
+  </si>
+  <si>
+    <t>Creates roadnetworks of these sets</t>
+  </si>
+  <si>
+    <t>Find towns along these roads</t>
+  </si>
+  <si>
+    <t>RoadNode used to tell other hexes that it has a road.</t>
+  </si>
+  <si>
+    <t>ValidStart</t>
+  </si>
+  <si>
+    <t>If head can start with this biome (not good for rare biomes)</t>
   </si>
 </sst>
 </file>
@@ -2232,7 +2256,7 @@
   <dimension ref="B2:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,10 +2274,7 @@
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="J3" t="s">
         <v>3</v>
@@ -2267,10 +2288,7 @@
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E4" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="J4" t="s">
         <v>186</v>
@@ -2284,7 +2302,10 @@
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>185</v>
+        <v>179</v>
+      </c>
+      <c r="E5" t="s">
+        <v>180</v>
       </c>
       <c r="J5" t="s">
         <v>187</v>
@@ -2294,6 +2315,12 @@
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" t="s">
+        <v>184</v>
+      </c>
       <c r="M6" t="s">
         <v>194</v>
       </c>
@@ -2302,11 +2329,20 @@
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>185</v>
+      </c>
       <c r="N7" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" t="s">
+        <v>237</v>
+      </c>
       <c r="N8" t="s">
         <v>186</v>
       </c>
@@ -2349,6 +2385,9 @@
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>214</v>
+      </c>
+      <c r="S17" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
@@ -2467,20 +2506,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533EBB87-5A6A-46A2-9F13-A4D39854AC7D}">
-  <dimension ref="C4:M6"/>
+  <dimension ref="C4:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="P16" sqref="L12:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>206</v>
       </c>
@@ -2488,12 +2527,37 @@
         <v>217</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>197</v>
       </c>
       <c r="M6" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
+++ b/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keeley\git\HexCrawlRepo\HexCrawlGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4C7A8A-E3DC-4747-9B9A-7E1B3391AE23}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58403D5-5244-4355-95C4-4832383E5E6A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="4" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="8" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,10 @@
     <sheet name="Todo" sheetId="6" r:id="rId3"/>
     <sheet name="BWeights" sheetId="7" r:id="rId4"/>
     <sheet name="Classes" sheetId="8" r:id="rId5"/>
-    <sheet name="Generation Order" sheetId="9" r:id="rId6"/>
+    <sheet name="TodoList" sheetId="10" r:id="rId6"/>
+    <sheet name="Properties" sheetId="11" r:id="rId7"/>
+    <sheet name="Generation Order" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="367">
   <si>
     <t>HexMap - LinkedHashMap&lt;Tuple&lt;Integer&gt;,Hex&gt;</t>
   </si>
@@ -744,6 +747,393 @@
   </si>
   <si>
     <t>If head can start with this biome (not good for rare biomes)</t>
+  </si>
+  <si>
+    <t>Features to Code</t>
+  </si>
+  <si>
+    <t>Features finished</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add "do not start" biomes </t>
+  </si>
+  <si>
+    <t>Generation:</t>
+  </si>
+  <si>
+    <t>Editing:</t>
+  </si>
+  <si>
+    <t>Save/Load hexmap with serialization</t>
+  </si>
+  <si>
+    <t>Outputting:</t>
+  </si>
+  <si>
+    <t>Add River Generation</t>
+  </si>
+  <si>
+    <t>Add Road Generation</t>
+  </si>
+  <si>
+    <t>Add Monster Generation</t>
+  </si>
+  <si>
+    <t>Monster:</t>
+  </si>
+  <si>
+    <t>NomadChance:</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>RoamingRadius:</t>
+  </si>
+  <si>
+    <t>applies to both nomadic and lairs</t>
+  </si>
+  <si>
+    <t>SpawnChance: &lt;biomename&gt;-X</t>
+  </si>
+  <si>
+    <t>SpawnChance: &lt;biomename&gt;-X, &lt;b2&gt;-X</t>
+  </si>
+  <si>
+    <t>Visibility:</t>
+  </si>
+  <si>
+    <t>Valid Starts:</t>
+  </si>
+  <si>
+    <t>Elevated Water sources</t>
+  </si>
+  <si>
+    <t>Mountains</t>
+  </si>
+  <si>
+    <t>Valid Ends:</t>
+  </si>
+  <si>
+    <t>Low water sources</t>
+  </si>
+  <si>
+    <t>Features:</t>
+  </si>
+  <si>
+    <t>"Generates random maps with custom biomes"</t>
+  </si>
+  <si>
+    <t>"Biomes will influence others nearby, sharing properties and transitioning smoothly"</t>
+  </si>
+  <si>
+    <t>"Adds terrain features such as towns, dungeons, lairs, roaming monsters, roads and rivers"</t>
+  </si>
+  <si>
+    <t>"Creates a auto-generated d100 encounter list for each hex"</t>
+  </si>
+  <si>
+    <t>"Gives information of surrounding hexes based on what the players could see"</t>
+  </si>
+  <si>
+    <t>"Create custom encounter lists for worldobjects that the generator will insert"</t>
+  </si>
+  <si>
+    <t>Add Custom Encounters to replace standard encounters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encounters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0..* </t>
+  </si>
+  <si>
+    <t>uses this list when adding encounters to the d100 list, replaces standard "there are ghouls here"</t>
+  </si>
+  <si>
+    <t>FUNCTIONALITY</t>
+  </si>
+  <si>
+    <t>Rivers</t>
+  </si>
+  <si>
+    <t>Link different hexes together</t>
+  </si>
+  <si>
+    <t>Link towns together</t>
+  </si>
+  <si>
+    <t>Generate signposts for directions</t>
+  </si>
+  <si>
+    <t>Act as boundaries to monsters</t>
+  </si>
+  <si>
+    <t>Increase travel cost</t>
+  </si>
+  <si>
+    <t>Generate crossings on rivers (remove travel cost)</t>
+  </si>
+  <si>
+    <t>Add biome modificators from file</t>
+  </si>
+  <si>
+    <t>Add biome modificators from worldobjects</t>
+  </si>
+  <si>
+    <t>Add River and Road nodes</t>
+  </si>
+  <si>
+    <t>Add town and landmark Gen</t>
+  </si>
+  <si>
+    <t>cannot 'swim' down rivers, as they are not biomes.</t>
+  </si>
+  <si>
+    <t>Travelcost affects 'land' creatures</t>
+  </si>
+  <si>
+    <t>Fly or Other</t>
+  </si>
+  <si>
+    <t>RoamType:</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>travelcost</t>
+  </si>
+  <si>
+    <t>spotdistance</t>
+  </si>
+  <si>
+    <t>riverorigin</t>
+  </si>
+  <si>
+    <t>riverend</t>
+  </si>
+  <si>
+    <t>Lair or nomadic</t>
+  </si>
+  <si>
+    <t>Chance is RandInt(1,100), if result &lt; chance, thing happens.</t>
+  </si>
+  <si>
+    <t>X% chance PER hex of that biome type.</t>
+  </si>
+  <si>
+    <t>BiomeModifier:</t>
+  </si>
+  <si>
+    <t>ADDS to modified biome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color: </t>
+  </si>
+  <si>
+    <t>adds this component to each</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name: </t>
+  </si>
+  <si>
+    <t>(Prefix)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">height: </t>
+  </si>
+  <si>
+    <t>adds if positive, takes if negative</t>
+  </si>
+  <si>
+    <t>as above</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spotdistance </t>
+  </si>
+  <si>
+    <t>encounters will be encountered at this distance within the hex (ft)</t>
+  </si>
+  <si>
+    <t>aka, stealth rolls should be rolled at this distance, failure = this distance spotted.</t>
+  </si>
+  <si>
+    <t>spot should be a diceroll string</t>
+  </si>
+  <si>
+    <t>flat integer</t>
+  </si>
+  <si>
+    <t>validbiomes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">origin: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">will only apply this biome to valid biomes </t>
+  </si>
+  <si>
+    <t>searches via name, regardless of type.</t>
+  </si>
+  <si>
+    <t>Biomes only</t>
+  </si>
+  <si>
+    <t>biome names csv</t>
+  </si>
+  <si>
+    <t>&lt;biomename&gt;-X</t>
+  </si>
+  <si>
+    <t>Affected by travel cost, does a "flood" search to find radius</t>
+  </si>
+  <si>
+    <t>Town:</t>
+  </si>
+  <si>
+    <t>(Lair)</t>
+  </si>
+  <si>
+    <t>no lairs, create 0 nomadicchance monsters to always generate a lair.</t>
+  </si>
+  <si>
+    <t>if additional flavor required, use dungeons instead.</t>
+  </si>
+  <si>
+    <t>Landmark</t>
+  </si>
+  <si>
+    <t>PRE-SET MODIFIERS THAT OCCUR WITHIN PROGRAM</t>
+  </si>
+  <si>
+    <t>Adds, use 1 sentence./</t>
+  </si>
+  <si>
+    <t>Use full sentences, 3 maximum probably.</t>
+  </si>
+  <si>
+    <t>SpawnChance:</t>
+  </si>
+  <si>
+    <t>lair monsters that can be present</t>
+  </si>
+  <si>
+    <t>how dominant evidence of these tracks are</t>
+  </si>
+  <si>
+    <t>Likelihood of encountering tracks or evidence, not the monster itself.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MonsterChance: </t>
+  </si>
+  <si>
+    <t>&lt;monstername&gt;-X, &lt;monstername&gt;-X</t>
+  </si>
+  <si>
+    <t>affects river generation</t>
+  </si>
+  <si>
+    <t>Some minor modifiers such as river origins only add description, not name.</t>
+  </si>
+  <si>
+    <t>Connectivity:</t>
+  </si>
+  <si>
+    <t>The resource it uses to create a road to nearby town(s)</t>
+  </si>
+  <si>
+    <t>Visibility affects how well it is seen within and nearby its home hex. Large visibility means it'll appear on more encounter tables as "evidence"</t>
+  </si>
+  <si>
+    <t>EncounterChance:</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>EVIDENCE</t>
+  </si>
+  <si>
+    <t>appends any monsters as 'patrols'</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>MinMax</t>
+  </si>
+  <si>
+    <t>&lt;Min,Max&gt;</t>
+  </si>
+  <si>
+    <t>After generation, finds clusters of valid biomes and labels them with a region</t>
+  </si>
+  <si>
+    <t>This is mainly for lore</t>
+  </si>
+  <si>
+    <t>MinSize</t>
+  </si>
+  <si>
+    <t>How many hexes of validbiomes together before this is considered a valid region location.</t>
+  </si>
+  <si>
+    <t>InitialPath=true</t>
+  </si>
+  <si>
+    <t>If can reach nearest town</t>
+  </si>
+  <si>
+    <t>While initialpath=false</t>
+  </si>
+  <si>
+    <t>Get next largest connectivity</t>
+  </si>
+  <si>
+    <t>update townQ</t>
+  </si>
+  <si>
+    <t>While contains towns in townQ</t>
+  </si>
+  <si>
+    <t>If can reach nearest town or roadnode</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>remove town from townQ</t>
+  </si>
+  <si>
+    <t>subtract connectivity from BOTH</t>
+  </si>
+  <si>
+    <t>(do not subtract connectivity for initial path)</t>
+  </si>
+  <si>
+    <t>Sort Towns by largest connectivity TownQ</t>
+  </si>
+  <si>
+    <t>Get largest Town (or next largest)</t>
+  </si>
+  <si>
+    <t>Road Generator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROADPath to nearest town </t>
+  </si>
+  <si>
+    <t>ROADconnect to nearest town OR roadnode</t>
+  </si>
+  <si>
+    <t>Dijkstra's</t>
+  </si>
+  <si>
+    <t>search through connections for hexes containing towns, if they do</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1934,7 @@
   <dimension ref="B1:AE45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:G17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,8 +2645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7658268-425E-4714-A5A5-378B4A74F2DC}">
   <dimension ref="B2:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2406,6 +2796,17 @@
         <v>227</v>
       </c>
     </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E20" t="s">
+        <v>270</v>
+      </c>
+      <c r="F20" t="s">
+        <v>271</v>
+      </c>
+    </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R22" t="s">
         <v>22</v>
@@ -2505,11 +2906,548 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66146DA2-A49A-4A2A-BD60-539D5A363125}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" t="s">
+        <v>239</v>
+      </c>
+      <c r="N1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>241</v>
+      </c>
+      <c r="O3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>240</v>
+      </c>
+      <c r="N4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>245</v>
+      </c>
+      <c r="O5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>283</v>
+      </c>
+      <c r="N6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>246</v>
+      </c>
+      <c r="O7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>268</v>
+      </c>
+      <c r="N12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>242</v>
+      </c>
+      <c r="N15" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>243</v>
+      </c>
+      <c r="N16" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E41E48A-940E-466C-A207-70F5A6CF197C}">
+  <dimension ref="B1:W43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T43" sqref="T43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>295</v>
+      </c>
+      <c r="N1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>340</v>
+      </c>
+      <c r="R2" t="s">
+        <v>320</v>
+      </c>
+      <c r="S2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>248</v>
+      </c>
+      <c r="P4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>335</v>
+      </c>
+      <c r="S9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" t="s">
+        <v>252</v>
+      </c>
+      <c r="I10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>254</v>
+      </c>
+      <c r="H11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D13" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
+      <c r="E19" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>200</v>
+      </c>
+      <c r="S19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>327</v>
+      </c>
+      <c r="S20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>331</v>
+      </c>
+      <c r="S21" t="s">
+        <v>332</v>
+      </c>
+      <c r="W21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>177</v>
+      </c>
+      <c r="W22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>291</v>
+      </c>
+      <c r="E23" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>292</v>
+      </c>
+      <c r="F24" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>293</v>
+      </c>
+      <c r="F25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>297</v>
+      </c>
+      <c r="D28" t="s">
+        <v>298</v>
+      </c>
+      <c r="P28" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>301</v>
+      </c>
+      <c r="D29" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" t="s">
+        <v>325</v>
+      </c>
+      <c r="G30" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>299</v>
+      </c>
+      <c r="D31" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>303</v>
+      </c>
+      <c r="D32" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>290</v>
+      </c>
+      <c r="D33" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>306</v>
+      </c>
+      <c r="D34" t="s">
+        <v>305</v>
+      </c>
+      <c r="G34" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>311</v>
+      </c>
+      <c r="G35" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>312</v>
+      </c>
+      <c r="D36" t="s">
+        <v>317</v>
+      </c>
+      <c r="F36" t="s">
+        <v>316</v>
+      </c>
+      <c r="H36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>292</v>
+      </c>
+      <c r="E37" t="s">
+        <v>333</v>
+      </c>
+      <c r="I37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>293</v>
+      </c>
+      <c r="E38" t="s">
+        <v>333</v>
+      </c>
+      <c r="I38" t="s">
+        <v>324</v>
+      </c>
+      <c r="P38" t="s">
+        <v>342</v>
+      </c>
+      <c r="T38" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="Q39" t="s">
+        <v>198</v>
+      </c>
+      <c r="U39" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="Q40" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="Q41" t="s">
+        <v>343</v>
+      </c>
+      <c r="R41" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="Q42" t="s">
+        <v>347</v>
+      </c>
+      <c r="R42" t="s">
+        <v>339</v>
+      </c>
+      <c r="T42" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="Q43" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533EBB87-5A6A-46A2-9F13-A4D39854AC7D}">
   <dimension ref="C4:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="L12:P16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2535,7 +3473,30 @@
         <v>218</v>
       </c>
     </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>259</v>
+      </c>
+    </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>260</v>
+      </c>
       <c r="L12" t="s">
         <v>230</v>
       </c>
@@ -2558,6 +3519,110 @@
     <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="N16" t="s">
         <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD20796D-B0DE-4732-BD5F-0F3C623F8AF6}">
+  <dimension ref="B1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>350</v>
+      </c>
+      <c r="H5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H12" t="s">
+        <v>365</v>
+      </c>
+      <c r="I12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
+++ b/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keeley\git\HexCrawlRepo\HexCrawlGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58403D5-5244-4355-95C4-4832383E5E6A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EFB232-9D03-48C4-A3F3-D1C6D13C93CC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="8" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="6" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Properties" sheetId="11" r:id="rId7"/>
     <sheet name="Generation Order" sheetId="9" r:id="rId8"/>
     <sheet name="Sheet3" sheetId="12" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="370">
   <si>
     <t>HexMap - LinkedHashMap&lt;Tuple&lt;Integer&gt;,Hex&gt;</t>
   </si>
@@ -1134,6 +1135,15 @@
   </si>
   <si>
     <t>search through connections for hexes containing towns, if they do</t>
+  </si>
+  <si>
+    <t>abyss</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>reef</t>
   </si>
 </sst>
 </file>
@@ -1184,11 +1194,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1929,6 +1942,480 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB24C8B8-13DD-4866-A847-9EE60EC0784A}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="A1:L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="12" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="4">
+        <v>500</v>
+      </c>
+      <c r="C2" s="4">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="4">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>500</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="4">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>500</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>50</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>100</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="4">
+        <v>100</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>100</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>10</v>
+      </c>
+      <c r="G7" s="4">
+        <v>500</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>500</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>50</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>300</v>
+      </c>
+      <c r="L11" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>10</v>
+      </c>
+      <c r="L12" s="4">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3FFC2E-0279-4607-A621-7B99083CA9F1}">
   <dimension ref="B1:AE45"/>
@@ -2218,7 +2705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFEF3A76-9AB3-444D-84D1-A480A7497687}">
   <dimension ref="B3:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -3051,8 +3538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E41E48A-940E-466C-A207-70F5A6CF197C}">
   <dimension ref="B1:W43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T43" sqref="T43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U43" sqref="U43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3530,8 +4017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD20796D-B0DE-4732-BD5F-0F3C623F8AF6}">
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U13" sqref="U13:V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
+++ b/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keeley\git\HexCrawlRepo\HexCrawlGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EFB232-9D03-48C4-A3F3-D1C6D13C93CC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB3A742-1C62-47D1-8CED-C8676E9A99E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="6" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
   </bookViews>
@@ -3539,7 +3539,7 @@
   <dimension ref="B1:W43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U43" sqref="U43"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
+++ b/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keeley\git\HexCrawlRepo\HexCrawlGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB3A742-1C62-47D1-8CED-C8676E9A99E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23056732-8B14-4F22-8E74-30BF61B562B1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="6" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
   </bookViews>
@@ -3538,7 +3538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E41E48A-940E-466C-A207-70F5A6CF197C}">
   <dimension ref="B1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>

--- a/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
+++ b/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keeley\git\HexCrawlRepo\HexCrawlGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23056732-8B14-4F22-8E74-30BF61B562B1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1FF2D8-D1F4-4638-A6CB-064004DF596C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="6" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
   </bookViews>
@@ -22,7 +22,6 @@
     <sheet name="Properties" sheetId="11" r:id="rId7"/>
     <sheet name="Generation Order" sheetId="9" r:id="rId8"/>
     <sheet name="Sheet3" sheetId="12" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="386">
   <si>
     <t>HexMap - LinkedHashMap&lt;Tuple&lt;Integer&gt;,Hex&gt;</t>
   </si>
@@ -1137,13 +1136,61 @@
     <t>search through connections for hexes containing towns, if they do</t>
   </si>
   <si>
-    <t>abyss</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>reef</t>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>&lt;biomename&gt;-X,&lt;biomename2&gt;-X2</t>
+  </si>
+  <si>
+    <t>Add biome modifications from File</t>
+  </si>
+  <si>
+    <t>Add Custom Encounters to replace standard "encounter a monster"</t>
+  </si>
+  <si>
+    <t>Add initial biome modifiers</t>
+  </si>
+  <si>
+    <t>generate rivers</t>
+  </si>
+  <si>
+    <t>generate biomes</t>
+  </si>
+  <si>
+    <t>generate towns and landmarks</t>
+  </si>
+  <si>
+    <t>generate roads</t>
+  </si>
+  <si>
+    <t>Add monsters to hexes</t>
+  </si>
+  <si>
+    <t>Add river biome modifiers to biomes</t>
+  </si>
+  <si>
+    <t>HexRoller</t>
+  </si>
+  <si>
+    <t>HashMap&lt;Biome,</t>
+  </si>
+  <si>
+    <t>Don’t need rivers and roads to be rolled, hexes handle that themselves.</t>
+  </si>
+  <si>
+    <t>if this is successfully rolled for the hex, apply that biomemod to all adjacent valid hexes</t>
+  </si>
+  <si>
+    <t>RandomCollection&lt;BiomeMods&gt;&gt; mods</t>
+  </si>
+  <si>
+    <t>RandomCollection&lt;Monster&gt;&gt; monsters</t>
+  </si>
+  <si>
+    <t>if this is successfully rolled for the hex, add that monster to this hex</t>
+  </si>
+  <si>
+    <t>RandomCollection&lt;Biome&gt;&gt; biomes</t>
   </si>
 </sst>
 </file>
@@ -1194,14 +1241,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1942,480 +1986,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB24C8B8-13DD-4866-A847-9EE60EC0784A}">
-  <dimension ref="A1:L12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="A1:L12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="12" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="4">
-        <v>500</v>
-      </c>
-      <c r="C2" s="4">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4">
-        <v>1</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>1</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="4">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4">
-        <v>500</v>
-      </c>
-      <c r="D3" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="4">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4">
-        <v>500</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>50</v>
-      </c>
-      <c r="F5" s="4">
-        <v>5</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4">
-        <v>100</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="4">
-        <v>100</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4">
-        <v>100</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4">
-        <v>500</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
-      <c r="E8" s="4">
-        <v>5</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>500</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>1</v>
-      </c>
-      <c r="L8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>10</v>
-      </c>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>50</v>
-      </c>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>1</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>5</v>
-      </c>
-      <c r="F10" s="4">
-        <v>5</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>300</v>
-      </c>
-      <c r="L11" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <v>10</v>
-      </c>
-      <c r="L12" s="4">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3FFC2E-0279-4607-A621-7B99083CA9F1}">
   <dimension ref="B1:AE45"/>
@@ -3130,10 +2700,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7658268-425E-4714-A5A5-378B4A74F2DC}">
-  <dimension ref="B2:W34"/>
+  <dimension ref="B2:W45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3377,14 +2947,59 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J33" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J34" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>379</v>
+      </c>
+      <c r="E42" t="s">
+        <v>383</v>
+      </c>
+      <c r="J42" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>379</v>
+      </c>
+      <c r="E43" t="s">
+        <v>382</v>
+      </c>
+      <c r="J43" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>379</v>
+      </c>
+      <c r="E44" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -3397,7 +3012,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A4" sqref="A4:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3538,8 +3153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E41E48A-940E-466C-A207-70F5A6CF197C}">
   <dimension ref="B1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3760,6 +3375,14 @@
         <v>309</v>
       </c>
     </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>367</v>
+      </c>
+      <c r="D26" t="s">
+        <v>368</v>
+      </c>
+    </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>297</v>
@@ -3931,10 +3554,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533EBB87-5A6A-46A2-9F13-A4D39854AC7D}">
-  <dimension ref="C4:N16"/>
+  <dimension ref="C4:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4006,6 +3629,51 @@
     <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="N16" t="s">
         <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
+++ b/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keeley\git\HexCrawlRepo\HexCrawlGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1FF2D8-D1F4-4638-A6CB-064004DF596C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C233FC8-A551-4DBE-999E-05FAC17F35BD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="6" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="3" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="Import File Formats" sheetId="2" r:id="rId2"/>
     <sheet name="Todo" sheetId="6" r:id="rId3"/>
-    <sheet name="BWeights" sheetId="7" r:id="rId4"/>
-    <sheet name="Classes" sheetId="8" r:id="rId5"/>
-    <sheet name="TodoList" sheetId="10" r:id="rId6"/>
-    <sheet name="Properties" sheetId="11" r:id="rId7"/>
-    <sheet name="Generation Order" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="12" r:id="rId9"/>
+    <sheet name="Classes" sheetId="8" r:id="rId4"/>
+    <sheet name="TodoList" sheetId="10" r:id="rId5"/>
+    <sheet name="Properties" sheetId="11" r:id="rId6"/>
+    <sheet name="Generation Order" sheetId="9" r:id="rId7"/>
+    <sheet name="Pseudo" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="376">
   <si>
     <t>HexMap - LinkedHashMap&lt;Tuple&lt;Integer&gt;,Hex&gt;</t>
   </si>
@@ -494,30 +493,6 @@
     <t>better way to input biome weights, make it non-compulsory to include biomes, make empty indexes = 0</t>
   </si>
   <si>
-    <t>scrub</t>
-  </si>
-  <si>
-    <t>forest</t>
-  </si>
-  <si>
-    <t>rough</t>
-  </si>
-  <si>
-    <t>desert</t>
-  </si>
-  <si>
-    <t>hills</t>
-  </si>
-  <si>
-    <t>mountains</t>
-  </si>
-  <si>
-    <t>marsh</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
     <t xml:space="preserve">add River generation </t>
   </si>
   <si>
@@ -542,18 +517,6 @@
     <t>these are randomly applied to hexes</t>
   </si>
   <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>bweight</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>plain</t>
-  </si>
-  <si>
     <t>Hex has: "WorldObjects" - these affect how the hex is treated by programs.</t>
   </si>
   <si>
@@ -1191,6 +1154,12 @@
   </si>
   <si>
     <t>RandomCollection&lt;Biome&gt;&gt; biomes</t>
+  </si>
+  <si>
+    <t>BaseMonster: contains unmodifiable stuff regarding each monster, including its spawn chances.</t>
+  </si>
+  <si>
+    <t>Monster: HAS a basemonster, and whether it’s a lair or nomadic, and other modified stats. THIS HAS THE DESCRIPTOR!!!</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1631,7 @@
         <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="R16" t="s">
         <v>34</v>
@@ -1673,7 +1642,7 @@
         <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
@@ -1681,7 +1650,7 @@
         <v>13</v>
       </c>
       <c r="J18" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="Q18" t="s">
         <v>24</v>
@@ -2309,42 +2278,42 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2353,357 +2322,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C3FAB9-666F-4230-B6BA-656A15C724B2}">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>7</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7658268-425E-4714-A5A5-378B4A74F2DC}">
   <dimension ref="B2:W45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2716,152 +2339,152 @@
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="J3" t="s">
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="W3" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="J4" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="L4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="W4" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="J5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="L5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="M6" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="W6" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="N7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E8" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="N8" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="E14" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="R14" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="S14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="S15" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="S16" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="S17" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="R18" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="S18" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="S19" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E20" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="F20" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
@@ -2871,67 +2494,67 @@
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="S23" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="U23" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="U24" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D26" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" t="s">
+        <v>196</v>
+      </c>
+      <c r="H26" t="s">
         <v>198</v>
-      </c>
-      <c r="G26" t="s">
-        <v>208</v>
-      </c>
-      <c r="H26" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D27" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="H27" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="R27" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D28" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="H28" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D29" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -2939,67 +2562,67 @@
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="K31" s="2" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J33" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J34" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="E42" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="J42" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="E43" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="J43" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="E44" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -3007,7 +2630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66146DA2-A49A-4A2A-BD60-539D5A363125}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
@@ -3019,129 +2642,532 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="E1" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="N1" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="O3" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="N4" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="O5" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="N6" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="O7" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="N12" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N13" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="Q13" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N14" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="Q14" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="N15" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="Q15" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="N16" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="Q16" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>244</v>
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E41E48A-940E-466C-A207-70F5A6CF197C}">
+  <dimension ref="B1:W43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>283</v>
+      </c>
+      <c r="N1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>328</v>
+      </c>
+      <c r="R2" t="s">
+        <v>308</v>
+      </c>
+      <c r="S2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="S3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="P4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>323</v>
+      </c>
+      <c r="S9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>242</v>
+      </c>
+      <c r="H11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>326</v>
+      </c>
+      <c r="E15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E19" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>188</v>
+      </c>
+      <c r="S19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>315</v>
+      </c>
+      <c r="S20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>319</v>
+      </c>
+      <c r="S21" t="s">
+        <v>320</v>
+      </c>
+      <c r="W21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>165</v>
+      </c>
+      <c r="W22" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>279</v>
+      </c>
+      <c r="E23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>280</v>
+      </c>
+      <c r="F24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>281</v>
+      </c>
+      <c r="F25" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>355</v>
+      </c>
+      <c r="D26" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>285</v>
+      </c>
+      <c r="D28" t="s">
+        <v>286</v>
+      </c>
+      <c r="P28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>289</v>
+      </c>
+      <c r="D29" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>238</v>
+      </c>
+      <c r="D30" t="s">
+        <v>313</v>
+      </c>
+      <c r="G30" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>287</v>
+      </c>
+      <c r="D31" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>291</v>
+      </c>
+      <c r="D32" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>278</v>
+      </c>
+      <c r="D33" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>294</v>
+      </c>
+      <c r="D34" t="s">
+        <v>293</v>
+      </c>
+      <c r="G34" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>299</v>
+      </c>
+      <c r="G35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>300</v>
+      </c>
+      <c r="D36" t="s">
+        <v>305</v>
+      </c>
+      <c r="F36" t="s">
+        <v>304</v>
+      </c>
+      <c r="H36" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>280</v>
+      </c>
+      <c r="E37" t="s">
+        <v>321</v>
+      </c>
+      <c r="I37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>281</v>
+      </c>
+      <c r="E38" t="s">
+        <v>321</v>
+      </c>
+      <c r="I38" t="s">
+        <v>312</v>
+      </c>
+      <c r="P38" t="s">
+        <v>330</v>
+      </c>
+      <c r="T38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="Q39" t="s">
+        <v>186</v>
+      </c>
+      <c r="U39" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="Q40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="Q41" t="s">
+        <v>331</v>
+      </c>
+      <c r="R41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="Q42" t="s">
+        <v>335</v>
+      </c>
+      <c r="R42" t="s">
+        <v>327</v>
+      </c>
+      <c r="T42" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="Q43" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -3150,401 +3176,133 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E41E48A-940E-466C-A207-70F5A6CF197C}">
-  <dimension ref="B1:W43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533EBB87-5A6A-46A2-9F13-A4D39854AC7D}">
+  <dimension ref="C4:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="E1" t="s">
-        <v>295</v>
-      </c>
-      <c r="N1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="O2" t="s">
-        <v>340</v>
-      </c>
-      <c r="R2" t="s">
-        <v>320</v>
-      </c>
-      <c r="S2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="S3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>194</v>
+      </c>
+      <c r="L5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+      <c r="M6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
         <v>248</v>
       </c>
-      <c r="P4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="Q6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E9" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>335</v>
-      </c>
-      <c r="S9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>251</v>
-      </c>
-      <c r="E10" t="s">
-        <v>252</v>
-      </c>
-      <c r="I10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>254</v>
-      </c>
-      <c r="H11" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>255</v>
-      </c>
-      <c r="D12" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>287</v>
-      </c>
-      <c r="D13" t="s">
-        <v>286</v>
-      </c>
-      <c r="F13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>338</v>
-      </c>
-      <c r="E15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="N16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>200</v>
-      </c>
-      <c r="E19" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>200</v>
-      </c>
-      <c r="S19" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>327</v>
-      </c>
-      <c r="S20" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>331</v>
-      </c>
-      <c r="S21" t="s">
-        <v>332</v>
-      </c>
-      <c r="W21" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>177</v>
-      </c>
-      <c r="W22" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>291</v>
-      </c>
-      <c r="E23" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>292</v>
-      </c>
-      <c r="F24" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>293</v>
-      </c>
-      <c r="F25" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="K24" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>367</v>
-      </c>
-      <c r="D26" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>297</v>
-      </c>
-      <c r="D28" t="s">
-        <v>298</v>
-      </c>
-      <c r="P28" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>301</v>
-      </c>
-      <c r="D29" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>250</v>
-      </c>
-      <c r="D30" t="s">
-        <v>325</v>
-      </c>
-      <c r="G30" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>299</v>
-      </c>
-      <c r="D31" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>303</v>
-      </c>
-      <c r="D32" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>290</v>
-      </c>
-      <c r="D33" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>306</v>
-      </c>
-      <c r="D34" t="s">
-        <v>305</v>
-      </c>
-      <c r="G34" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>311</v>
-      </c>
-      <c r="G35" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>312</v>
-      </c>
-      <c r="D36" t="s">
-        <v>317</v>
-      </c>
-      <c r="F36" t="s">
-        <v>316</v>
-      </c>
-      <c r="H36" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>292</v>
-      </c>
-      <c r="E37" t="s">
-        <v>333</v>
-      </c>
-      <c r="I37" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>293</v>
-      </c>
-      <c r="E38" t="s">
-        <v>333</v>
-      </c>
-      <c r="I38" t="s">
-        <v>324</v>
-      </c>
-      <c r="P38" t="s">
-        <v>342</v>
-      </c>
-      <c r="T38" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="Q39" t="s">
-        <v>198</v>
-      </c>
-      <c r="U39" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="Q40" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="Q41" t="s">
-        <v>343</v>
-      </c>
-      <c r="R41" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="Q42" t="s">
-        <v>347</v>
-      </c>
-      <c r="R42" t="s">
-        <v>339</v>
-      </c>
-      <c r="T42" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="Q43" t="s">
-        <v>311</v>
+        <v>357</v>
+      </c>
+      <c r="K26" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3553,135 +3311,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533EBB87-5A6A-46A2-9F13-A4D39854AC7D}">
-  <dimension ref="C4:N27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>206</v>
-      </c>
-      <c r="L5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>197</v>
-      </c>
-      <c r="M6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>260</v>
-      </c>
-      <c r="L12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="L13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="L14" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="M15" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="N16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>370</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD20796D-B0DE-4732-BD5F-0F3C623F8AF6}">
   <dimension ref="B1:I17"/>
   <sheetViews>
@@ -3693,91 +3322,91 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="H5" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="H12" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="I12" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>

--- a/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
+++ b/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keeley\git\HexCrawlRepo\HexCrawlGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E717EC2-C5CA-44DE-9927-BC8DEDBB0D09}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEC07AD-1277-45A1-B6A5-F036231C0466}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="5" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="3" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="372">
   <si>
     <t>HexMap - LinkedHashMap&lt;Tuple&lt;Integer&gt;,Hex&gt;</t>
   </si>
@@ -1140,6 +1140,15 @@
   <si>
     <t>total connects: 16380</t>
   </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>MUST DO</t>
+  </si>
+  <si>
+    <t>PARTLY DONE (RIVERS)</t>
+  </si>
 </sst>
 </file>
 
@@ -1154,7 +1163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1164,6 +1173,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,11 +1210,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2543,8 +2566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66146DA2-A49A-4A2A-BD60-539D5A363125}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2577,6 +2600,9 @@
       <c r="A4" t="s">
         <v>215</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="N4" t="s">
         <v>239</v>
       </c>
@@ -2585,6 +2611,9 @@
       <c r="A5" t="s">
         <v>220</v>
       </c>
+      <c r="C5" s="5" t="s">
+        <v>369</v>
+      </c>
       <c r="O5" t="s">
         <v>241</v>
       </c>
@@ -2609,6 +2638,9 @@
       <c r="A8" t="s">
         <v>257</v>
       </c>
+      <c r="D8" s="4" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2623,6 +2655,9 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>256</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -3097,7 +3132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC9A691-17A0-4FD0-9912-1C4FF342CD13}">
   <dimension ref="A1:G2794"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
+++ b/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keeley\git\HexCrawlRepo\HexCrawlGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEC07AD-1277-45A1-B6A5-F036231C0466}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE67B801-0F5B-4557-87BE-60B7426D8321}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="3" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="4" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="Import File Formats" sheetId="2" r:id="rId2"/>
     <sheet name="Classes" sheetId="8" r:id="rId3"/>
     <sheet name="TodoList" sheetId="10" r:id="rId4"/>
-    <sheet name="Properties" sheetId="11" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId6"/>
-    <sheet name="Generation Order" sheetId="9" r:id="rId7"/>
-    <sheet name="Pseudo" sheetId="12" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId5"/>
+    <sheet name="Properties" sheetId="11" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId7"/>
+    <sheet name="Generation Order" sheetId="9" r:id="rId8"/>
+    <sheet name="Pseudo" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1495" uniqueCount="386">
   <si>
     <t>HexMap - LinkedHashMap&lt;Tuple&lt;Integer&gt;,Hex&gt;</t>
   </si>
@@ -1149,6 +1150,48 @@
   <si>
     <t>PARTLY DONE (RIVERS)</t>
   </si>
+  <si>
+    <t>Failed to read default property: bweight</t>
+  </si>
+  <si>
+    <t>[water, marsh, scrub, rough, ocean, hills, reef, desert, mountains, plain, forest]</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>desert</t>
+  </si>
+  <si>
+    <t>rough</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>ocean</t>
+  </si>
+  <si>
+    <t>marsh</t>
+  </si>
+  <si>
+    <t>plain</t>
+  </si>
+  <si>
+    <t>scrub</t>
+  </si>
+  <si>
+    <t>hills</t>
+  </si>
+  <si>
+    <t>mountains</t>
+  </si>
+  <si>
+    <t>reef</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -2566,7 +2609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66146DA2-A49A-4A2A-BD60-539D5A363125}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -2717,6 +2760,5324 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A00D89-A687-44B7-892D-746B32F2F5BC}">
+  <dimension ref="A1:O1060"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>375</v>
+      </c>
+      <c r="O10" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A948" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A949" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>381</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E41E48A-940E-466C-A207-70F5A6CF197C}">
   <dimension ref="B1:W43"/>
   <sheetViews>
@@ -3128,7 +8489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC9A691-17A0-4FD0-9912-1C4FF342CD13}">
   <dimension ref="A1:G2794"/>
   <sheetViews>
@@ -67413,7 +72774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533EBB87-5A6A-46A2-9F13-A4D39854AC7D}">
   <dimension ref="C4:N27"/>
   <sheetViews>
@@ -67548,7 +72909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD20796D-B0DE-4732-BD5F-0F3C623F8AF6}">
   <dimension ref="B1:I17"/>
   <sheetViews>

--- a/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
+++ b/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keeley\git\HexCrawlRepo\HexCrawlGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBE3E1C-058A-4DDA-B851-5E2F5467F578}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D49182-A93E-4B4D-AF19-9F0266ED7A51}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="4" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="6" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -2729,7 +2729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E41E48A-940E-466C-A207-70F5A6CF197C}">
   <dimension ref="B1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
@@ -3285,8 +3285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD20796D-B0DE-4732-BD5F-0F3C623F8AF6}">
   <dimension ref="B1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U13" sqref="U13:V13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
+++ b/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keeley\git\HexCrawlRepo\HexCrawlGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D49182-A93E-4B4D-AF19-9F0266ED7A51}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5458857-D156-4D14-8939-13A7607D0C90}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="6" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="414">
   <si>
     <t>HexMap - LinkedHashMap&lt;Tuple&lt;Integer&gt;,Hex&gt;</t>
   </si>
@@ -1158,6 +1158,123 @@
   <si>
     <t>default is all:1</t>
   </si>
+  <si>
+    <t>Road cleaner</t>
+  </si>
+  <si>
+    <t>Iterate through roadnodes, get connection size.</t>
+  </si>
+  <si>
+    <t>----------------</t>
+  </si>
+  <si>
+    <t>Set&lt;RoadNode&gt; roadnodes</t>
+  </si>
+  <si>
+    <t>Set&lt;Connection&gt; roadconnections</t>
+  </si>
+  <si>
+    <t>clean(set node, set connection</t>
+  </si>
+  <si>
+    <t>For each roadnetwork</t>
+  </si>
+  <si>
+    <t>from roadnetwork</t>
+  </si>
+  <si>
+    <t>remove nodes, remove connections</t>
+  </si>
+  <si>
+    <t>Add all roadnodes w/ connection size &gt; 2 to Set intersectionNodes</t>
+  </si>
+  <si>
+    <t>recursiveTravel(node, visitedN, visitedC)</t>
+  </si>
+  <si>
+    <t>---------------</t>
+  </si>
+  <si>
+    <t>set visitedC = new</t>
+  </si>
+  <si>
+    <t>set visitedN = new</t>
+  </si>
+  <si>
+    <t>Iterate through each node in set intersectionNode</t>
+  </si>
+  <si>
+    <t>for each connection from node not in visitedC</t>
+  </si>
+  <si>
+    <t>visitedN+=node</t>
+  </si>
+  <si>
+    <t>nodeO = connection.other</t>
+  </si>
+  <si>
+    <t>if nodeO is in set visitedN</t>
+  </si>
+  <si>
+    <t>if nodeO is not in set R</t>
+  </si>
+  <si>
+    <t>if node ! Contain town</t>
+  </si>
+  <si>
+    <t>visitedC +=connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">else </t>
+  </si>
+  <si>
+    <t>vistedN+=nodeO</t>
+  </si>
+  <si>
+    <t>delete = recursiveTravel(node, visitedN, visitedC)</t>
+  </si>
+  <si>
+    <t>return false;</t>
+  </si>
+  <si>
+    <t>return true;</t>
+  </si>
+  <si>
+    <t>if (delete) &amp;&amp; this node ! In set R</t>
+  </si>
+  <si>
+    <t>delete connection from and to this node, delete this node</t>
+  </si>
+  <si>
+    <t>check nodeO still valid in set R</t>
+  </si>
+  <si>
+    <t>PARTLY DONE</t>
+  </si>
+  <si>
+    <t>Add complex string printouts</t>
+  </si>
+  <si>
+    <t>Add settings file to modify all inputs</t>
+  </si>
+  <si>
+    <t>Add basic string printouts for each hex</t>
+  </si>
+  <si>
+    <t>Add intuitive coordinate system</t>
+  </si>
+  <si>
+    <t>Add "stats" handling/rolls</t>
+  </si>
+  <si>
+    <t>Add "centre-start" generation option</t>
+  </si>
+  <si>
+    <t>Add biome regoins</t>
+  </si>
+  <si>
+    <t>Add minimum size biome setting</t>
+  </si>
 </sst>
 </file>
 
@@ -2573,10 +2690,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66146DA2-A49A-4A2A-BD60-539D5A363125}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="N11" sqref="H10:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2609,8 +2726,11 @@
       <c r="A4" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>370</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>369</v>
       </c>
       <c r="N4" t="s">
         <v>239</v>
@@ -2620,7 +2740,7 @@
       <c r="A5" t="s">
         <v>220</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>369</v>
       </c>
       <c r="O5" t="s">
@@ -2631,6 +2751,9 @@
       <c r="A6" t="s">
         <v>258</v>
       </c>
+      <c r="G6" s="4" t="s">
+        <v>405</v>
+      </c>
       <c r="N6" t="s">
         <v>240</v>
       </c>
@@ -2639,6 +2762,9 @@
       <c r="A7" t="s">
         <v>221</v>
       </c>
+      <c r="G7" s="5" t="s">
+        <v>369</v>
+      </c>
       <c r="O7" t="s">
         <v>242</v>
       </c>
@@ -2647,8 +2773,11 @@
       <c r="A8" t="s">
         <v>257</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>371</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -2665,7 +2794,7 @@
       <c r="A11" t="s">
         <v>256</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>371</v>
       </c>
     </row>
@@ -2695,7 +2824,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>217</v>
+        <v>411</v>
       </c>
       <c r="N15" t="s">
         <v>252</v>
@@ -2706,7 +2835,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>410</v>
       </c>
       <c r="N16" t="s">
         <v>253</v>
@@ -2715,9 +2844,49 @@
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -3283,35 +3452,35 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD20796D-B0DE-4732-BD5F-0F3C623F8AF6}">
-  <dimension ref="B1:I17"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>324</v>
       </c>
@@ -3319,32 +3488,32 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>329</v>
       </c>
@@ -3355,29 +3524,187 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>375</v>
+      </c>
+      <c r="G23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
+++ b/HexCrawlGenerator/HexCrawlBrainstorming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keeley\git\HexCrawlRepo\HexCrawlGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5458857-D156-4D14-8939-13A7607D0C90}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AFB8DA-C7C3-46BD-A547-2B0FA65AE24F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="6" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="8" xr2:uid="{87C68EA5-05F6-40AA-A0F5-E044F78FA25B}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Generation Order" sheetId="9" r:id="rId6"/>
     <sheet name="Pseudo" sheetId="12" r:id="rId7"/>
     <sheet name="Fixed neighbour error" sheetId="13" r:id="rId8"/>
+    <sheet name="View" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="448">
   <si>
     <t>HexMap - LinkedHashMap&lt;Tuple&lt;Integer&gt;,Hex&gt;</t>
   </si>
@@ -1275,13 +1276,156 @@
   <si>
     <t>Add minimum size biome setting</t>
   </si>
+  <si>
+    <t>Rename this to a biome layer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">spawnchances can be on </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>either</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> biomes or biome-layers.</t>
+    </r>
+  </si>
+  <si>
+    <t>Module Based</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>Lairs / Dungeons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visiting / Nomadic </t>
+  </si>
+  <si>
+    <t>Towns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGNPOST: Towns along each road with distance + time taken </t>
+  </si>
+  <si>
+    <t>Monsters, name and number</t>
+  </si>
+  <si>
+    <t>Each "neighbouring" unique region to current region</t>
+  </si>
+  <si>
+    <t>This Hex</t>
+  </si>
+  <si>
+    <t>Neighbouring unique biomes</t>
+  </si>
+  <si>
+    <t>name, direction</t>
+  </si>
+  <si>
+    <t>Distant tall regions within sight (40mi)</t>
+  </si>
+  <si>
+    <t>Navigation Priorities</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>name, direction, distance</t>
+  </si>
+  <si>
+    <t>distance (if applicable)</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>This River</t>
+  </si>
+  <si>
+    <t>Closest Unique Region up/downstream from here</t>
+  </si>
+  <si>
+    <t>Source + Destination Region &amp; Hex Coordinate</t>
+  </si>
+  <si>
+    <t>name, direction, coordinate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">region name, river coordinate </t>
+  </si>
+  <si>
+    <t>region name, river coordinate, distance</t>
+  </si>
+  <si>
+    <t>name, direction (center-center)</t>
+  </si>
+  <si>
+    <t>River Priorities</t>
+  </si>
+  <si>
+    <t>region name</t>
+  </si>
+  <si>
+    <t>coordinate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waypoints </t>
+  </si>
+  <si>
+    <t>name, description</t>
+  </si>
+  <si>
+    <t>Each road direction:</t>
+  </si>
+  <si>
+    <t>towns, distance, travel-time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1336,13 +1480,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2898,8 +3043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E41E48A-940E-466C-A207-70F5A6CF197C}">
   <dimension ref="B1:W43"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3204,7 +3349,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>265</v>
       </c>
@@ -3212,7 +3357,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>281</v>
       </c>
@@ -3223,7 +3368,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>285</v>
       </c>
@@ -3231,7 +3376,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>286</v>
       </c>
@@ -3245,7 +3390,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>267</v>
       </c>
@@ -3256,7 +3401,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>268</v>
       </c>
@@ -3273,7 +3418,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
       <c r="Q39" t="s">
         <v>173</v>
       </c>
@@ -3281,12 +3426,15 @@
         <v>320</v>
       </c>
     </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
       <c r="Q40" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>414</v>
+      </c>
       <c r="Q41" t="s">
         <v>317</v>
       </c>
@@ -3294,7 +3442,10 @@
         <v>318</v>
       </c>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>415</v>
+      </c>
       <c r="Q42" t="s">
         <v>321</v>
       </c>
@@ -3305,13 +3456,14 @@
         <v>322</v>
       </c>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
       <c r="Q43" t="s">
         <v>285</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3454,7 +3606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD20796D-B0DE-4732-BD5F-0F3C623F8AF6}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -67995,4 +68147,220 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669B5755-9301-4059-BC46-2020EE4ADC49}">
+  <dimension ref="A2:H40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>430</v>
+      </c>
+      <c r="G6" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>432</v>
+      </c>
+      <c r="H7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>433</v>
+      </c>
+      <c r="F8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>441</v>
+      </c>
+      <c r="E16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>442</v>
+      </c>
+      <c r="F17" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>443</v>
+      </c>
+      <c r="G18" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>432</v>
+      </c>
+      <c r="H19" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>433</v>
+      </c>
+      <c r="F20" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>420</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>